--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7f3f8e23c5cac0d/Documentos/CAM_Windows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9161BDBC-5ABB-4616-8182-18D6ED8CAD71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{018A9B68-6C3D-4EE8-8E1E-431342C0410A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{402E5FB0-B73D-477F-91C8-8AA628125CBF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" activeTab="10" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
   </bookViews>
   <sheets>
-    <sheet name="CAM Simple" sheetId="1" r:id="rId1"/>
+    <sheet name="CAM Basica" sheetId="21" r:id="rId1"/>
     <sheet name="CAM Simple Optimizada" sheetId="6" r:id="rId2"/>
     <sheet name="CAM Simple-Opt-Con parada" sheetId="7" r:id="rId3"/>
     <sheet name="CAM Binaria" sheetId="8" r:id="rId4"/>
@@ -23,7 +23,7 @@
     <sheet name="CAM Binaria con 2 submemorias" sheetId="12" r:id="rId8"/>
     <sheet name="CAM hash" sheetId="16" r:id="rId9"/>
     <sheet name="CAM hash-mem-bidireccional" sheetId="17" r:id="rId10"/>
-    <sheet name="CAM hash binaria mux" sheetId="21" r:id="rId11"/>
+    <sheet name="CAM multi hax" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
   <si>
     <t>BFS</t>
   </si>
@@ -53,12 +53,39 @@
   <si>
     <t>Tamaño: 128</t>
   </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>Cosimulación</t>
+  </si>
+  <si>
+    <t>Tamaño: 256</t>
+  </si>
+  <si>
+    <t>Tamaño: 512</t>
+  </si>
+  <si>
+    <t>Tamaño: 1024</t>
+  </si>
+  <si>
+    <t>Tamaño: 2048</t>
+  </si>
+  <si>
+    <t>Tamaño: 4096</t>
+  </si>
+  <si>
+    <t>Tamaño: 8096</t>
+  </si>
+  <si>
+    <t>Como podemos comprobar, no hay prácticamente cambios en utilizar la estrategia de usar el almacenamiento de los datos del árbol tanto en anchura como en profundidad. El coste de recursos crece lógicamente con el crecimiento del árbol, siendo lo más destacable el requerimiento de usar 15 BRAMs para guardar los datos del árbol. El uso tanto de FFs como de LUTs crece también pero de manera muy poco significativa. Vemos que la latencia sigue el orden de O(2N) siendo N el tamaño del árbol.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,8 +100,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +149,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,22 +171,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto explicativo" xfId="4" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,6 +227,1243 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161469</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3E0766-2609-459F-AD64-2BDDA7350F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="1238250"/>
+          <a:ext cx="3647619" cy="2133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47229</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E071A51-7BB1-43E3-BE0B-8B3D496E9223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="3943350"/>
+          <a:ext cx="3171429" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504369</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEF14C7-2B89-4E78-8719-886368F26397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="1228725"/>
+          <a:ext cx="3647619" cy="2133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209154</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D440028-0FA9-42CE-94A3-4B80C88E0242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="3933825"/>
+          <a:ext cx="3171429" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161467</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>37832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DF0B94-1B4F-476F-9189-FCE538CFB5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="5705475"/>
+          <a:ext cx="3666667" cy="2142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485317</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9992E31-ADF0-49B8-B960-878A6AD9B64A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="5695950"/>
+          <a:ext cx="3666667" cy="2142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609206</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF80FB42-68E7-4126-86BD-3D4048BC4E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="8362950"/>
+          <a:ext cx="3152381" cy="790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285356</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318040E4-95C6-4531-AEE6-47703DB667EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11287125" y="8362950"/>
+          <a:ext cx="3152381" cy="790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180509</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA19527D-A353-482D-8BAD-1D0910C45594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="10134600"/>
+          <a:ext cx="3723809" cy="2161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>551984</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F43BAF1-C022-4256-893B-4078F7B3B8E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982325" y="10153650"/>
+          <a:ext cx="3723809" cy="2161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666329</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86C9ACF-E70A-44BE-9937-D6874EF64432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="12944475"/>
+          <a:ext cx="3371429" cy="800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>399629</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>18950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3885ECD-82C3-4EBB-8557-CBA3DF3EDDE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11182350" y="12934950"/>
+          <a:ext cx="3371429" cy="800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599619</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>47357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0D9C62-21AE-4C5B-B0DA-DD5A311C9FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="14668500"/>
+          <a:ext cx="3647619" cy="2142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>599619</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>47357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FB4E5A-7EB7-4D0D-B2DB-B4B1EA06AFCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="14668500"/>
+          <a:ext cx="3647619" cy="2142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294857</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>28476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F802CF1-6F1C-48E6-947C-7B1DD232D2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="17526000"/>
+          <a:ext cx="3342857" cy="790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>294857</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>28476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E9D741-CB80-4815-8B2D-9B9514FEF0ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="17526000"/>
+          <a:ext cx="3342857" cy="790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475793</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>66405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CE370F-AE06-4EC6-A531-E395AFEF60AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="19621500"/>
+          <a:ext cx="3657143" cy="2161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609143</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>37830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B45EEBC-287A-44FD-BA51-BC9F217CDDA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="19592925"/>
+          <a:ext cx="3657143" cy="2161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294857</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>18952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4038BB1F-BBC7-44B0-BE21-8328669BAB7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="22479000"/>
+          <a:ext cx="3342857" cy="780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>294857</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>18952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E93D8F6-08EF-4E40-ABEF-2E7B0718B021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="22479000"/>
+          <a:ext cx="3342857" cy="780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>618667</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>56881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C1CC7B-40A8-4C77-949E-715B4BEC684F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="24574500"/>
+          <a:ext cx="3666667" cy="2152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609142</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>85456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ECC6F47-94A5-4952-8881-F5AE47E12716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="24603075"/>
+          <a:ext cx="3666667" cy="2152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>332952</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>38000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8234D07-A754-4318-A8D0-C5B865238474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="27622500"/>
+          <a:ext cx="3380952" cy="800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>332952</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>38000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9AAF00-F888-4ECB-93F0-04EFFA9C6E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="27622500"/>
+          <a:ext cx="3380952" cy="800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647238</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>85452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86A508C-003E-4A47-80D0-85B034A4DD98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="29908500"/>
+          <a:ext cx="3695238" cy="2180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647238</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>85452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC647899-9A2F-4346-935D-FBB01BE71C0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="29908500"/>
+          <a:ext cx="3695238" cy="2180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666286</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>104667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF09BF3-8F11-4DF5-915D-F34E8706EDD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="32956500"/>
+          <a:ext cx="3714286" cy="866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666286</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>104667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DB8F30-FB38-4023-AE74-85DB83BED396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="32956500"/>
+          <a:ext cx="3714286" cy="866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,11 +1762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E1498-3E67-4831-9DD3-2D18DC5DD20B}">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9C0015-3E39-4502-842B-4EE1D31AEFA4}">
+  <dimension ref="A1:T184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="N188" sqref="N188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,59 +1776,613 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10"/>
+      <c r="O179" s="10"/>
+      <c r="P179" s="10"/>
+      <c r="Q179" s="10"/>
+      <c r="R179" s="10"/>
+      <c r="S179" s="10"/>
+      <c r="T179" s="10"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="10"/>
+      <c r="N180" s="10"/>
+      <c r="O180" s="10"/>
+      <c r="P180" s="10"/>
+      <c r="Q180" s="10"/>
+      <c r="R180" s="10"/>
+      <c r="S180" s="10"/>
+      <c r="T180" s="10"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L184" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="24">
+    <mergeCell ref="A171:T171"/>
+    <mergeCell ref="A179:T180"/>
+    <mergeCell ref="A29:T29"/>
+    <mergeCell ref="A43:T43"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A50:T50"/>
     <mergeCell ref="M1:T1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="A27:T27"/>
+    <mergeCell ref="A5:T5"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A52:T52"/>
+    <mergeCell ref="A67:T67"/>
+    <mergeCell ref="A74:T74"/>
+    <mergeCell ref="A76:T76"/>
+    <mergeCell ref="A91:T91"/>
+    <mergeCell ref="A143:T143"/>
+    <mergeCell ref="A152:T152"/>
+    <mergeCell ref="A155:T155"/>
+    <mergeCell ref="A99:T99"/>
+    <mergeCell ref="A102:T102"/>
+    <mergeCell ref="A117:T117"/>
+    <mergeCell ref="A125:T125"/>
+    <mergeCell ref="A128:T128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -507,50 +2401,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -564,11 +2458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9C0015-3E39-4502-842B-4EE1D31AEFA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E1498-3E67-4831-9DD3-2D18DC5DD20B}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,50 +2472,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -649,50 +2543,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -720,50 +2614,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -791,50 +2685,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -862,50 +2756,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -933,50 +2827,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1004,50 +2898,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1075,50 +2969,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1146,50 +3040,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -183,16 +183,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
@@ -202,10 +206,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1765,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9C0015-3E39-4502-842B-4EE1D31AEFA4}">
   <dimension ref="A1:T184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="N188" sqref="N188"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J183" sqref="J183:J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,80 +1776,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="4"/>
@@ -1873,55 +1873,55 @@
       <c r="T20" s="4"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="4"/>
@@ -1945,55 +1945,55 @@
       <c r="T43" s="4"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B67" s="4"/>
@@ -2017,271 +2017,271 @@
       <c r="T67" s="4"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
-      <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-      <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="3"/>
-      <c r="N152" s="3"/>
-      <c r="O152" s="3"/>
-      <c r="P152" s="3"/>
-      <c r="Q152" s="3"/>
-      <c r="R152" s="3"/>
-      <c r="S152" s="3"/>
-      <c r="T152" s="3"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="7"/>
+      <c r="R152" s="7"/>
+      <c r="S152" s="7"/>
+      <c r="T152" s="7"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
-      <c r="S155" s="2"/>
-      <c r="T155" s="2"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B171" s="4"/>
@@ -2305,56 +2305,64 @@
       <c r="T171" s="4"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B179" s="10"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="10"/>
-      <c r="I179" s="10"/>
-      <c r="J179" s="10"/>
-      <c r="K179" s="10"/>
-      <c r="L179" s="10"/>
-      <c r="M179" s="10"/>
-      <c r="N179" s="10"/>
-      <c r="O179" s="10"/>
-      <c r="P179" s="10"/>
-      <c r="Q179" s="10"/>
-      <c r="R179" s="10"/>
-      <c r="S179" s="10"/>
-      <c r="T179" s="10"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="10"/>
-      <c r="L180" s="10"/>
-      <c r="M180" s="10"/>
-      <c r="N180" s="10"/>
-      <c r="O180" s="10"/>
-      <c r="P180" s="10"/>
-      <c r="Q180" s="10"/>
-      <c r="R180" s="10"/>
-      <c r="S180" s="10"/>
-      <c r="T180" s="10"/>
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="5"/>
+      <c r="S180" s="5"/>
+      <c r="T180" s="5"/>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L184" s="9"/>
+      <c r="L184" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A143:T143"/>
+    <mergeCell ref="A152:T152"/>
+    <mergeCell ref="A155:T155"/>
+    <mergeCell ref="A99:T99"/>
+    <mergeCell ref="A102:T102"/>
+    <mergeCell ref="A117:T117"/>
+    <mergeCell ref="A125:T125"/>
+    <mergeCell ref="A128:T128"/>
     <mergeCell ref="A171:T171"/>
     <mergeCell ref="A179:T180"/>
     <mergeCell ref="A29:T29"/>
@@ -2371,14 +2379,6 @@
     <mergeCell ref="A74:T74"/>
     <mergeCell ref="A76:T76"/>
     <mergeCell ref="A91:T91"/>
-    <mergeCell ref="A143:T143"/>
-    <mergeCell ref="A152:T152"/>
-    <mergeCell ref="A155:T155"/>
-    <mergeCell ref="A99:T99"/>
-    <mergeCell ref="A102:T102"/>
-    <mergeCell ref="A117:T117"/>
-    <mergeCell ref="A125:T125"/>
-    <mergeCell ref="A128:T128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2401,50 +2401,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2472,50 +2472,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2543,50 +2543,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2614,50 +2614,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2685,50 +2685,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2756,50 +2756,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2827,50 +2827,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2898,50 +2898,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2969,50 +2969,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3040,50 +3040,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7f3f8e23c5cac0d/Documentos/CAM_Windows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="937" documentId="13_ncr:1_{018A9B68-6C3D-4EE8-8E1E-431342C0410A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0B30503-08C0-40DA-99C3-33C7AD7066A4}"/>
+  <xr:revisionPtr revIDLastSave="1919" documentId="13_ncr:1_{018A9B68-6C3D-4EE8-8E1E-431342C0410A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D6BA838-3DE7-4FD0-9CB7-1BEA27E96F42}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" firstSheet="4" activeTab="12" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" firstSheet="5" activeTab="6" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
   </bookViews>
   <sheets>
     <sheet name="CAM Basica" sheetId="21" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <sheet name="CAM Binaria Optimizada" sheetId="9" r:id="rId5"/>
     <sheet name="CAM Binaria-Opt con parada" sheetId="10" r:id="rId6"/>
     <sheet name="CAM Binaria con Reader" sheetId="11" r:id="rId7"/>
-    <sheet name="CAM Binaria con 2 submemorias" sheetId="12" r:id="rId8"/>
-    <sheet name="CAM hash" sheetId="16" r:id="rId9"/>
-    <sheet name="CAM hash optimizada" sheetId="22" r:id="rId10"/>
-    <sheet name="CAM hash binaria" sheetId="17" r:id="rId11"/>
-    <sheet name="CAM multi hax" sheetId="1" r:id="rId12"/>
-    <sheet name="CAM hash ideal" sheetId="23" r:id="rId13"/>
+    <sheet name="CAM binaria reader con 2 salida" sheetId="25" r:id="rId8"/>
+    <sheet name="CAM Binaria con 2 submemorias" sheetId="12" r:id="rId9"/>
+    <sheet name="CAM hash" sheetId="16" r:id="rId10"/>
+    <sheet name="CAM hash optimizada" sheetId="22" r:id="rId11"/>
+    <sheet name="CAM hash binaria" sheetId="17" r:id="rId12"/>
+    <sheet name="CAM multi hax" sheetId="1" r:id="rId13"/>
+    <sheet name="CAM hash ideal" sheetId="23" r:id="rId14"/>
+    <sheet name="CAM hash 2 memorias" sheetId="24" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="14">
   <si>
     <t>Como podemos comprobar, no hay prácticamente cambios en utilizar la estrategia de usar el almacenamiento de los datos del árbol tanto en anchura como en profundidad. El coste de recursos crece lógicamente con el crecimiento del árbol, siendo lo más destacable el requerimiento de usar 15 BRAMs para guardar los datos del árbol. El uso tanto de FFs como de LUTs crece también pero de manera muy poco significativa. Vemos que la latencia sigue el orden de O(2N) siendo N el tamaño del árbol.</t>
   </si>
@@ -70,12 +72,30 @@
   <si>
     <t xml:space="preserve">Timing </t>
   </si>
+  <si>
+    <t>Latency (min)</t>
+  </si>
+  <si>
+    <t>Latency (avg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latency (max) </t>
+  </si>
+  <si>
+    <t>Interval (avg)</t>
+  </si>
+  <si>
+    <t>Interval( (max)</t>
+  </si>
+  <si>
+    <t>Interval (min)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +125,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -148,24 +181,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="60% - Énfasis5" xfId="4" builtinId="48"/>
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,6 +212,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -182,6 +226,2838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>891677</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19D8F6F-98D9-425F-96CD-B57E5C05BCA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3362324"/>
+          <a:ext cx="7168651" cy="3952875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3705225" cy="371475"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048B0F05-F53F-42A3-A365-29AD4B6F07EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277225" y="228599"/>
+          <a:ext cx="3705225" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>La</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> estrategia de búsqueda más sencilla</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783B5F17-E4BA-41FA-95FB-936A3E0B3F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="933450"/>
+          <a:ext cx="3600450" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Demasiado lenta (Orden =</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> O(2*Tamaño del arbol)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>943672</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE02C19-911D-45A0-B37B-0E75BCB5370B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3209925"/>
+          <a:ext cx="7468297" cy="4895062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73310DFA-5ED4-4A04-8C22-ED9993AD0561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="428625"/>
+          <a:ext cx="4467225" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- Sin optimizar,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> esta CAM tarda entre 1/Numero de buckets y N ciclos en  realizar la busqueda</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>- Buen timing sin necesitar de recursos excesivos. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC366FF-2E8C-49BA-AF6E-2EF04A7AE280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="1447800"/>
+          <a:ext cx="4381500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- Se necesita rellenar la</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> tabla hash y almacenarla previamente en la CAM.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>- La mejora depende del número de buckets (EN ESTE CASO HEMOS USADO 8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>245901</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>84937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2452A104-758F-4DB1-81E3-9AC8F88CBB19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3095625"/>
+          <a:ext cx="7322976" cy="4799812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D2EE91-B343-4913-80E9-486487F8055F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="238125"/>
+          <a:ext cx="4295775" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Con las mejoras de optimizacion de HLS, esta CAM es una</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> buena candidata, con un equilibrio entre coste de recursos, latencia, intervalo...</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411C2635-2805-408C-9CC1-9AC4069FBDBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="1162050"/>
+          <a:ext cx="4333875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>El timing es algo elevada</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> conforme aumenta el tamaño del árbol</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578538</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>132573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B433FD-DBF5-4388-965A-A9C3FB221EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3171825"/>
+          <a:ext cx="7007913" cy="4580748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C09620-017C-4EAE-A43F-8B12127FD3F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="400050"/>
+          <a:ext cx="4295775" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Con optimizacion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> y doble acceso a memoria, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>esta CAM es una</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> buena candidata, con un equilibrio entre coste de recursos, latencia, intervalo...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>- En el peor de los casos, el metodo tarda menos de 1/3*N</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99EA5A01-5979-402D-9A85-DBEF6DB39150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="1428750"/>
+          <a:ext cx="4333875" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Timing elevado y coste en recursos más elevado de lo normal, pero aún</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> es asumible y viable. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EC293C-2F0C-457E-943A-408577408F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="1428750"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06AEA520-31A6-49E2-A9D3-D0A85CE4BE39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="276225"/>
+          <a:ext cx="4791075" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> En el peor de los casos, el metodo tarda menos de 1/3*N. En el mejor, tarda 1 ciclo</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E92117-D4C5-453B-A3B4-730ECFEA92FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="1285875"/>
+          <a:ext cx="4333875" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Timing  MUY elevado y coste en recursos más elevado de lo normal, pero aún</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> es asumible y viable. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236376</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>103987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD4FEDC-5B0E-4A40-AE81-F3BFE6D64C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="3114675"/>
+          <a:ext cx="7322976" cy="4799812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A6F7F7-33CE-4051-AA3B-5E3D96765CDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="219075"/>
+          <a:ext cx="4886325" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- Esta CAM es la mejor en la teoría.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> Es ultrarrápida y no consume muchos recursos si no contamos el almacenamiento de las tablas hash</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C19F61-4057-43CA-B4A7-5710C8B5B247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153275" y="1095374"/>
+          <a:ext cx="4943475" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>El</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> único defecto de este modelo de CAM es que necesitas dos memorias del tamaño de N para almacenar los índices de cada nodo, y que cada vez que se actualice el árbol habrá que actualizar los índices también. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAABFB4D-CB1E-47D6-8AB6-D060076524EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124700" y="400050"/>
+          <a:ext cx="4695825" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Este modelo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> lo descartaremos. No hay ganancia en ningún aspecto con respecto a diseños más simples de CAM hash: Nos cuesta más recursos, timing, lartencia, intervalos.... Y aparte, es una CAM compleja de diseñar, sobre todo por la función hash necesaria </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C6B0CF-EBBE-4E02-AC0A-476CA92BA38A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3378283"/>
+          <a:ext cx="6915150" cy="3813092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88CB898-CA48-4DA9-A2F9-7428212AD8F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991474" y="247650"/>
+          <a:ext cx="4067175" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> Misma estrategia que la CAM básica simple</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t>- Las optimizaciones HLS hacen que sea algo mñás rápida, con un orden de busqueda de O(N+3)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t>- Timing bajo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0A62EB-F079-42FE-B4C5-2E77CDC79361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="1276350"/>
+          <a:ext cx="3971925" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> Existen mejores estrategias a la hora de busqueda de nodos. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t>- El tiempo de búsqueda sigue siendo mayor que N</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15864</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D412D54C-B872-4ADE-BC5F-6CA448434315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="6978639" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83968AC5-410D-4945-8131-80B2F006B5C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="333375"/>
+          <a:ext cx="3705225" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>Al</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> salir antes de la búsqueda, su orden de búsqueda oscila entre 4, N/2 y N</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CC484C-CF9C-45F2-9513-D58E9F8E0DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="1171575"/>
+          <a:ext cx="3638550" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>- El tiempo de búsqueda</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> sigue sin bajar de O(N) en el peor de los casos. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>751446</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375133DF-CF56-48C9-9762-5F07C3AB24C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="3124200"/>
+          <a:ext cx="5933046" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C3A786-92E7-48F7-8B7C-8B1D8833C53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600949" y="266700"/>
+          <a:ext cx="3952875" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>- No consume muchos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> más recursos en comparación con la simple</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4E312F-3D56-4A86-A097-117E6666976F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="1019175"/>
+          <a:ext cx="4057650" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>- Sin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> optimizaciones, sufre de dependencias y su orden de búsqueda es de O(N+N/2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t>- No hay ganancia de  tiempo respecto a la CAM simple </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>696012</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46087C3-5BCA-4D25-9F8D-09EA70C4BEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3333750"/>
+          <a:ext cx="6210987" cy="3818974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270B5A93-1A8F-4C94-B2EA-168D0B1FB8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="400050"/>
+          <a:ext cx="3771900" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>Con las optimizaciones de HLS logramos mejorar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> bastante tanto el timing como los tiempos de búsqueda</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398CE227-7DE9-451B-A374-4F7CA7BAA164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496174" y="1276350"/>
+          <a:ext cx="3838575" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>- El</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> cuello de botella hace que el tiempo de búsqueda siga sin ser mejor que la CAM simple a pesar del doble acceso de memoria</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t>- Más recursos para el mismo tiempo. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>898547</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E67EA0-990A-4818-922C-F9BC091F6509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="3162300"/>
+          <a:ext cx="6365897" cy="3914224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488098</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>46712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07602EC-5308-417B-A43F-A3AECF7829F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3600450"/>
+          <a:ext cx="8670072" cy="4637762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08010BCD-A0FB-49F5-AE1C-DCDD76A419F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201025" y="257175"/>
+          <a:ext cx="4181475" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> El tiempo de búsqueda se reduce a N/2 en el peor de los casos</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C1E6E0-2694-4378-A80C-BE392D5A00FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="885825"/>
+          <a:ext cx="4124325" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>Más</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> latencia debido a la ejecución de todos los procesos y de las dependencias existentes por el MUX, la lectura...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t>- Más consumo de recursos que los casos vistos hasta ahora. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>631745</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37757888-628F-4542-BCD8-570B94C2574B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="3238500"/>
+          <a:ext cx="7556420" cy="4047517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456779</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57139D13-D6E4-4B83-93A9-C81BDAF6BD29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="4038600"/>
+          <a:ext cx="3371429" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C8C271-919E-4247-B286-49A78AB2813D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458199" y="3176587"/>
+          <a:ext cx="4867276" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>En</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> esta versión no tenemos condiciones de parada, debido a que nos empeora el tiempo medio que tardaremos en el programa. Esta es la prueba con la versión del árbol de 4096. Podemos comprobar que el minimo es muy pequeño pero la media es de casi 500 ciclos más que sin condición de parada.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292166</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8F6D16-8D3F-4496-A5E0-55C23C732946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3105149"/>
+          <a:ext cx="7702616" cy="4247237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CuadroTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A43040-65B3-4698-8195-ACC6A7D0E838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="180975"/>
+          <a:ext cx="4791075" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- Tiempo de busqueda reducido a O(1/4*N)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> Timing bajo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CuadroTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51BA194-062D-4A40-A38D-322BA9C43C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="923925"/>
+          <a:ext cx="4762500" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0"/>
+            <a:t>Las</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0" baseline="0"/>
+            <a:t> memorias deben de estar almacenadas de manera externa a la CAM (Por ello aqui no se contabilizan BRAM, pero podemos estimar que es 2*BRAM de las CAMs anteriores. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0" baseline="0"/>
+            <a:t>- Mayor coste en recursos. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,7 +3360,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,32 +3370,32 @@
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -543,9 +3419,14 @@
       <c r="H2">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -569,9 +3450,14 @@
       <c r="H3">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -595,9 +3481,14 @@
       <c r="H4">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -621,9 +3512,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -647,9 +3543,14 @@
       <c r="H6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -673,9 +3574,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -699,52 +3605,220 @@
       <c r="H8">
         <v>7.4219999999999997</v>
       </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>258</v>
+      </c>
+      <c r="C10">
+        <v>514</v>
+      </c>
+      <c r="D10">
+        <v>1026</v>
+      </c>
+      <c r="E10">
+        <v>2050</v>
+      </c>
+      <c r="F10">
+        <v>4098</v>
+      </c>
+      <c r="G10">
+        <v>8194</v>
+      </c>
+      <c r="H10">
+        <v>16386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>258</v>
+      </c>
+      <c r="C11">
+        <v>514</v>
+      </c>
+      <c r="D11">
+        <v>1026</v>
+      </c>
+      <c r="E11">
+        <v>2050</v>
+      </c>
+      <c r="F11">
+        <v>4098</v>
+      </c>
+      <c r="G11">
+        <v>8194</v>
+      </c>
+      <c r="H11">
+        <v>16386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>258</v>
+      </c>
+      <c r="C12">
+        <v>514</v>
+      </c>
+      <c r="D12">
+        <v>1026</v>
+      </c>
+      <c r="E12">
+        <v>2050</v>
+      </c>
+      <c r="F12">
+        <v>4098</v>
+      </c>
+      <c r="G12">
+        <v>8194</v>
+      </c>
+      <c r="H12">
+        <v>16386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>259</v>
+      </c>
+      <c r="C13">
+        <v>515</v>
+      </c>
+      <c r="D13">
+        <v>1027</v>
+      </c>
+      <c r="E13">
+        <v>2051</v>
+      </c>
+      <c r="F13">
+        <v>4099</v>
+      </c>
+      <c r="G13">
+        <v>8195</v>
+      </c>
+      <c r="H13">
+        <v>16387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>259</v>
+      </c>
+      <c r="C14">
+        <v>515</v>
+      </c>
+      <c r="D14">
+        <v>1027</v>
+      </c>
+      <c r="E14">
+        <v>2051</v>
+      </c>
+      <c r="F14">
+        <v>4099</v>
+      </c>
+      <c r="G14">
+        <v>8195</v>
+      </c>
+      <c r="H14">
+        <v>16387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>259</v>
+      </c>
+      <c r="C15">
+        <v>515</v>
+      </c>
+      <c r="D15">
+        <v>1027</v>
+      </c>
+      <c r="E15">
+        <v>2051</v>
+      </c>
+      <c r="F15">
+        <v>4099</v>
+      </c>
+      <c r="G15">
+        <v>8195</v>
+      </c>
+      <c r="H15">
+        <v>16387</v>
+      </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
+      <c r="A179" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+      <c r="M179" s="9"/>
+      <c r="N179" s="9"/>
+      <c r="O179" s="9"/>
+      <c r="P179" s="9"/>
+      <c r="Q179" s="9"/>
+      <c r="R179" s="9"/>
+      <c r="S179" s="9"/>
+      <c r="T179" s="9"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="9"/>
+      <c r="O180" s="9"/>
+      <c r="P180" s="9"/>
+      <c r="Q180" s="9"/>
+      <c r="R180" s="9"/>
+      <c r="S180" s="9"/>
+      <c r="T180" s="9"/>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L184" s="1"/>
@@ -755,348 +3829,129 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9E203-65D6-4A68-AE2D-59D406207F4D}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555EC2DB-4136-4E77-99D8-5D03F27EBEFD}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
-        <v>128</v>
-      </c>
-      <c r="C1" s="5">
-        <v>256</v>
-      </c>
-      <c r="D1" s="5">
-        <v>512</v>
-      </c>
-      <c r="E1" s="5">
-        <v>1024</v>
-      </c>
-      <c r="F1" s="5">
-        <v>2048</v>
-      </c>
-      <c r="G1" s="5">
-        <v>4096</v>
-      </c>
-      <c r="H1" s="5">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>77</v>
-      </c>
-      <c r="C2">
-        <v>81</v>
-      </c>
-      <c r="D2">
-        <v>86</v>
-      </c>
-      <c r="E2">
-        <v>83</v>
-      </c>
-      <c r="F2">
-        <v>95</v>
-      </c>
-      <c r="G2">
-        <v>97</v>
-      </c>
-      <c r="H2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>253</v>
-      </c>
-      <c r="C3">
-        <v>246</v>
-      </c>
-      <c r="D3">
-        <v>266</v>
-      </c>
-      <c r="E3">
-        <v>256</v>
-      </c>
-      <c r="F3">
-        <v>290</v>
-      </c>
-      <c r="G3">
-        <v>306</v>
-      </c>
-      <c r="H3">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>118</v>
-      </c>
-      <c r="C4">
-        <v>192</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>204</v>
-      </c>
-      <c r="F4">
-        <v>215</v>
-      </c>
-      <c r="G4">
-        <v>215</v>
-      </c>
-      <c r="H4">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6.923</v>
-      </c>
-      <c r="C8">
-        <v>7.4260000000000002</v>
-      </c>
-      <c r="D8">
-        <v>8.4090000000000007</v>
-      </c>
-      <c r="E8">
-        <v>8.8650000000000002</v>
-      </c>
-      <c r="F8">
-        <v>8.3239999999999998</v>
-      </c>
-      <c r="G8">
-        <v>7.9059999999999997</v>
-      </c>
-      <c r="H8">
-        <v>8.3859999999999992</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8933FF-E9C9-4567-A68E-420C9697A774}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>118</v>
+      </c>
+      <c r="D3">
+        <v>125</v>
+      </c>
+      <c r="E3">
+        <v>131</v>
+      </c>
+      <c r="F3">
+        <v>126</v>
+      </c>
+      <c r="G3">
+        <v>137</v>
+      </c>
+      <c r="H3">
         <v>141</v>
       </c>
-      <c r="C2">
-        <v>140</v>
-      </c>
-      <c r="D2">
-        <v>163</v>
-      </c>
-      <c r="E2">
-        <v>171</v>
-      </c>
-      <c r="F2">
-        <v>165</v>
-      </c>
-      <c r="G2">
-        <v>187</v>
-      </c>
-      <c r="H2">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>412</v>
-      </c>
-      <c r="C3">
-        <v>428</v>
-      </c>
-      <c r="D3">
-        <v>500</v>
-      </c>
-      <c r="E3">
-        <v>529</v>
-      </c>
-      <c r="F3">
-        <v>497</v>
-      </c>
-      <c r="G3">
-        <v>554</v>
-      </c>
-      <c r="H3">
-        <v>584</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="C4">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="D4">
-        <v>359</v>
+        <v>126</v>
       </c>
       <c r="E4">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="F4">
-        <v>403</v>
+        <v>138</v>
       </c>
       <c r="G4">
-        <v>416</v>
+        <v>149</v>
       </c>
       <c r="H4">
-        <v>449</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1122,7 +3977,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1132,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1148,7 +4003,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1174,147 +4029,698 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8.2149999999999999</v>
+        <v>5.3529999999999998</v>
       </c>
       <c r="C8">
-        <v>7.8620000000000001</v>
+        <v>5.8789999999999996</v>
       </c>
       <c r="D8">
-        <v>8.1440000000000001</v>
+        <v>6.3170000000000002</v>
       </c>
       <c r="E8">
-        <v>8.109</v>
+        <v>6.1639999999999997</v>
       </c>
       <c r="F8">
-        <v>8.1419999999999995</v>
+        <v>6.4889999999999999</v>
       </c>
       <c r="G8">
-        <v>8.18</v>
+        <v>6.5270000000000001</v>
       </c>
       <c r="H8">
-        <v>8.6809999999999992</v>
+        <v>7.4109999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>121</v>
+      </c>
+      <c r="F10">
+        <v>244</v>
+      </c>
+      <c r="G10">
+        <v>492</v>
+      </c>
+      <c r="H10">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>184</v>
+      </c>
+      <c r="E11">
+        <v>364</v>
+      </c>
+      <c r="F11">
+        <v>730</v>
+      </c>
+      <c r="G11">
+        <v>1437</v>
+      </c>
+      <c r="H11">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>262</v>
+      </c>
+      <c r="D12">
+        <v>518</v>
+      </c>
+      <c r="E12">
+        <v>1030</v>
+      </c>
+      <c r="F12">
+        <v>2054</v>
+      </c>
+      <c r="G12">
+        <v>4102</v>
+      </c>
+      <c r="H12">
+        <v>8198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>122</v>
+      </c>
+      <c r="F13">
+        <v>245</v>
+      </c>
+      <c r="G13">
+        <v>493</v>
+      </c>
+      <c r="H13">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>186</v>
+      </c>
+      <c r="E14">
+        <v>366</v>
+      </c>
+      <c r="F14">
+        <v>731</v>
+      </c>
+      <c r="G14">
+        <v>1439</v>
+      </c>
+      <c r="H14">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>135</v>
+      </c>
+      <c r="C15">
+        <v>263</v>
+      </c>
+      <c r="D15">
+        <v>519</v>
+      </c>
+      <c r="E15">
+        <v>1031</v>
+      </c>
+      <c r="F15">
+        <v>2055</v>
+      </c>
+      <c r="G15">
+        <v>4103</v>
+      </c>
+      <c r="H15">
+        <v>8199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9E203-65D6-4A68-AE2D-59D406207F4D}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4">
+        <v>256</v>
+      </c>
+      <c r="D1" s="4">
+        <v>512</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4096</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>77</v>
+      </c>
+      <c r="C2">
+        <v>81</v>
+      </c>
+      <c r="D2">
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <v>83</v>
+      </c>
+      <c r="F2">
+        <v>95</v>
+      </c>
+      <c r="G2">
+        <v>97</v>
+      </c>
+      <c r="H2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>253</v>
+      </c>
+      <c r="C3">
+        <v>246</v>
+      </c>
+      <c r="D3">
+        <v>266</v>
+      </c>
+      <c r="E3">
+        <v>256</v>
+      </c>
+      <c r="F3">
+        <v>290</v>
+      </c>
+      <c r="G3">
+        <v>306</v>
+      </c>
+      <c r="H3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>192</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>204</v>
+      </c>
+      <c r="F4">
+        <v>215</v>
+      </c>
+      <c r="G4">
+        <v>215</v>
+      </c>
+      <c r="H4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6.923</v>
+      </c>
+      <c r="C8">
+        <v>7.4260000000000002</v>
+      </c>
+      <c r="D8">
+        <v>8.4090000000000007</v>
+      </c>
+      <c r="E8">
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="F8">
+        <v>8.3239999999999998</v>
+      </c>
+      <c r="G8">
+        <v>7.9059999999999997</v>
+      </c>
+      <c r="H8">
+        <v>8.3859999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <v>164</v>
+      </c>
+      <c r="G11">
+        <v>316</v>
+      </c>
+      <c r="H11">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>94</v>
+      </c>
+      <c r="E12">
+        <v>163</v>
+      </c>
+      <c r="F12">
+        <v>302</v>
+      </c>
+      <c r="G12">
+        <v>544</v>
+      </c>
+      <c r="H12">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <v>165</v>
+      </c>
+      <c r="G14">
+        <v>317</v>
+      </c>
+      <c r="H14">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>95</v>
+      </c>
+      <c r="E15">
+        <v>164</v>
+      </c>
+      <c r="F15">
+        <v>303</v>
+      </c>
+      <c r="G15">
+        <v>545</v>
+      </c>
+      <c r="H15">
+        <v>1176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E1498-3E67-4831-9DD3-2D18DC5DD20B}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8933FF-E9C9-4567-A68E-420C9697A774}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>141</v>
+      </c>
       <c r="C2">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D2">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E2">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F2">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="G2">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="H2">
-        <v>239</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>412</v>
+      </c>
       <c r="C3">
-        <v>505</v>
+        <v>428</v>
       </c>
       <c r="D3">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="E3">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="F3">
-        <v>621</v>
+        <v>497</v>
       </c>
       <c r="G3">
-        <v>654</v>
+        <v>554</v>
       </c>
       <c r="H3">
-        <v>671</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>318</v>
+      </c>
       <c r="C4">
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="D4">
-        <v>452</v>
+        <v>359</v>
       </c>
       <c r="E4">
-        <v>473</v>
+        <v>376</v>
       </c>
       <c r="F4">
-        <v>503</v>
+        <v>403</v>
       </c>
       <c r="G4">
-        <v>521</v>
+        <v>416</v>
       </c>
       <c r="H4">
-        <v>558</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -1335,8 +4741,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1358,92 +4767,641 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8.2149999999999999</v>
+      </c>
+      <c r="C8">
+        <v>7.8620000000000001</v>
+      </c>
+      <c r="D8">
+        <v>8.1440000000000001</v>
+      </c>
+      <c r="E8">
+        <v>8.109</v>
+      </c>
+      <c r="F8">
+        <v>8.1419999999999995</v>
+      </c>
+      <c r="G8">
+        <v>8.18</v>
+      </c>
+      <c r="H8">
+        <v>8.6809999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>71</v>
+      </c>
+      <c r="F11">
+        <v>131</v>
+      </c>
+      <c r="G11">
+        <v>250</v>
+      </c>
+      <c r="H11">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>93</v>
+      </c>
+      <c r="E12">
+        <v>143</v>
+      </c>
+      <c r="F12">
+        <v>287</v>
+      </c>
+      <c r="G12">
+        <v>537</v>
+      </c>
+      <c r="H12">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>72</v>
+      </c>
+      <c r="F14">
+        <v>131</v>
+      </c>
+      <c r="G14">
+        <v>250</v>
+      </c>
+      <c r="H14">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>8.1329999999999991</v>
-      </c>
-      <c r="D8">
-        <v>8.3239999999999998</v>
-      </c>
-      <c r="E8">
-        <v>8.6950000000000003</v>
-      </c>
-      <c r="F8">
-        <v>8.31</v>
-      </c>
-      <c r="G8">
-        <v>9.06</v>
-      </c>
-      <c r="H8">
-        <v>8.9420000000000002</v>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>94</v>
+      </c>
+      <c r="E15">
+        <v>144</v>
+      </c>
+      <c r="F15">
+        <v>288</v>
+      </c>
+      <c r="G15">
+        <v>538</v>
+      </c>
+      <c r="H15">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48CE571-B250-4D9B-A485-A8953DCBB074}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E1498-3E67-4831-9DD3-2D18DC5DD20B}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>166</v>
+      </c>
+      <c r="C2">
+        <v>156</v>
+      </c>
+      <c r="D2">
+        <v>174</v>
+      </c>
+      <c r="E2">
+        <v>183</v>
+      </c>
+      <c r="F2">
+        <v>204</v>
+      </c>
+      <c r="G2">
+        <v>228</v>
+      </c>
+      <c r="H2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>490</v>
+      </c>
+      <c r="C3">
+        <v>505</v>
+      </c>
+      <c r="D3">
+        <v>539</v>
+      </c>
+      <c r="E3">
+        <v>567</v>
+      </c>
+      <c r="F3">
+        <v>621</v>
+      </c>
+      <c r="G3">
+        <v>654</v>
+      </c>
+      <c r="H3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>403</v>
+      </c>
+      <c r="C4">
+        <v>425</v>
+      </c>
+      <c r="D4">
+        <v>452</v>
+      </c>
+      <c r="E4">
+        <v>473</v>
+      </c>
+      <c r="F4">
+        <v>503</v>
+      </c>
+      <c r="G4">
+        <v>521</v>
+      </c>
+      <c r="H4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8.1379999999999999</v>
+      </c>
+      <c r="C8">
+        <v>8.1329999999999991</v>
+      </c>
+      <c r="D8">
+        <v>8.3239999999999998</v>
+      </c>
+      <c r="E8">
+        <v>8.6950000000000003</v>
+      </c>
+      <c r="F8">
+        <v>8.31</v>
+      </c>
+      <c r="G8">
+        <v>9.06</v>
+      </c>
+      <c r="H8">
+        <v>8.9420000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>78</v>
+      </c>
+      <c r="D11">
+        <v>125</v>
+      </c>
+      <c r="E11">
+        <v>220</v>
+      </c>
+      <c r="F11">
+        <v>397</v>
+      </c>
+      <c r="G11">
+        <v>755</v>
+      </c>
+      <c r="H11">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>156</v>
+      </c>
+      <c r="D12">
+        <v>246</v>
+      </c>
+      <c r="E12">
+        <v>429</v>
+      </c>
+      <c r="F12">
+        <v>867</v>
+      </c>
+      <c r="G12">
+        <v>1617</v>
+      </c>
+      <c r="H12">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>72</v>
+      </c>
+      <c r="F14">
+        <v>131</v>
+      </c>
+      <c r="G14">
+        <v>250</v>
+      </c>
+      <c r="H14">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>94</v>
+      </c>
+      <c r="E15">
+        <v>144</v>
+      </c>
+      <c r="F15">
+        <v>288</v>
+      </c>
+      <c r="G15">
+        <v>538</v>
+      </c>
+      <c r="H15">
+        <v>1130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48CE571-B250-4D9B-A485-A8953DCBB074}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4">
+        <v>256</v>
+      </c>
+      <c r="D1" s="4">
+        <v>512</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4096</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1469,7 +5427,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1495,7 +5453,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1521,7 +5479,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1547,7 +5505,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1573,7 +5531,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1599,7 +5557,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1624,17 +5582,558 @@
         <v>7.8789999999999996</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31329F41-762F-4971-AEED-C432193FE4EC}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4">
+        <v>256</v>
+      </c>
+      <c r="D1" s="4">
+        <v>512</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4096</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>127</v>
+      </c>
+      <c r="C2" s="2">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2">
+        <v>124</v>
+      </c>
+      <c r="E2" s="2">
+        <v>129</v>
+      </c>
+      <c r="F2" s="2">
+        <v>143</v>
+      </c>
+      <c r="G2" s="2">
+        <v>157</v>
+      </c>
+      <c r="H2" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>344</v>
+      </c>
+      <c r="C3" s="2">
+        <v>362</v>
+      </c>
+      <c r="D3" s="2">
+        <v>368</v>
+      </c>
+      <c r="E3" s="2">
+        <v>386</v>
+      </c>
+      <c r="F3" s="2">
+        <v>409</v>
+      </c>
+      <c r="G3" s="2">
+        <v>411</v>
+      </c>
+      <c r="H3" s="2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>315</v>
+      </c>
+      <c r="C4" s="2">
+        <v>333</v>
+      </c>
+      <c r="D4" s="2">
+        <v>339</v>
+      </c>
+      <c r="E4" s="2">
+        <v>361</v>
+      </c>
+      <c r="F4" s="2">
+        <v>377</v>
+      </c>
+      <c r="G4" s="2">
+        <v>385</v>
+      </c>
+      <c r="H4" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7.5510000000000002</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9.0920000000000005</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9.234</v>
+      </c>
+      <c r="E8" s="7">
+        <v>9.1020000000000003</v>
+      </c>
+      <c r="F8" s="7">
+        <v>9.1359999999999992</v>
+      </c>
+      <c r="G8" s="7">
+        <v>8.6509999999999998</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9.1180000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>98</v>
+      </c>
+      <c r="D11">
+        <v>181</v>
+      </c>
+      <c r="E11">
+        <v>362</v>
+      </c>
+      <c r="F11">
+        <v>678</v>
+      </c>
+      <c r="G11">
+        <v>1369</v>
+      </c>
+      <c r="H11">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>161</v>
+      </c>
+      <c r="C12">
+        <v>335</v>
+      </c>
+      <c r="D12">
+        <v>651</v>
+      </c>
+      <c r="E12">
+        <v>1341</v>
+      </c>
+      <c r="F12">
+        <v>2584</v>
+      </c>
+      <c r="G12">
+        <v>5150</v>
+      </c>
+      <c r="H12">
+        <v>10331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>99</v>
+      </c>
+      <c r="D14">
+        <v>182</v>
+      </c>
+      <c r="E14">
+        <v>364</v>
+      </c>
+      <c r="F14">
+        <v>679</v>
+      </c>
+      <c r="G14">
+        <v>1370</v>
+      </c>
+      <c r="H14">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>162</v>
+      </c>
+      <c r="C15">
+        <v>336</v>
+      </c>
+      <c r="D15">
+        <v>652</v>
+      </c>
+      <c r="E15">
+        <v>1342</v>
+      </c>
+      <c r="F15">
+        <v>2585</v>
+      </c>
+      <c r="G15">
+        <v>5151</v>
+      </c>
+      <c r="H15">
+        <v>10333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F93D63E-3D2C-4CB1-ADF5-61F397707A21}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,39 +6144,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1703,7 +6202,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1727,18 +6226,18 @@
       <c r="H3">
         <v>133</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1764,7 +6263,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1790,7 +6289,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1816,7 +6315,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1842,7 +6341,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1865,6 +6364,162 @@
       </c>
       <c r="H8">
         <v>5.7480000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>259</v>
+      </c>
+      <c r="D10">
+        <v>515</v>
+      </c>
+      <c r="E10">
+        <v>1027</v>
+      </c>
+      <c r="F10">
+        <v>2051</v>
+      </c>
+      <c r="G10">
+        <v>4099</v>
+      </c>
+      <c r="H10">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>131</v>
+      </c>
+      <c r="C11">
+        <v>259</v>
+      </c>
+      <c r="D11">
+        <v>515</v>
+      </c>
+      <c r="E11">
+        <v>1027</v>
+      </c>
+      <c r="F11">
+        <v>2051</v>
+      </c>
+      <c r="G11">
+        <v>4099</v>
+      </c>
+      <c r="H11">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>131</v>
+      </c>
+      <c r="C12">
+        <v>259</v>
+      </c>
+      <c r="D12">
+        <v>515</v>
+      </c>
+      <c r="E12">
+        <v>1027</v>
+      </c>
+      <c r="F12">
+        <v>2051</v>
+      </c>
+      <c r="G12">
+        <v>4099</v>
+      </c>
+      <c r="H12">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>132</v>
+      </c>
+      <c r="C13">
+        <v>260</v>
+      </c>
+      <c r="D13">
+        <v>516</v>
+      </c>
+      <c r="E13">
+        <v>1028</v>
+      </c>
+      <c r="F13">
+        <v>2052</v>
+      </c>
+      <c r="G13">
+        <v>4100</v>
+      </c>
+      <c r="H13">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>132</v>
+      </c>
+      <c r="C14">
+        <v>260</v>
+      </c>
+      <c r="D14">
+        <v>516</v>
+      </c>
+      <c r="E14">
+        <v>1028</v>
+      </c>
+      <c r="F14">
+        <v>2052</v>
+      </c>
+      <c r="G14">
+        <v>4100</v>
+      </c>
+      <c r="H14">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>132</v>
+      </c>
+      <c r="C15">
+        <v>260</v>
+      </c>
+      <c r="D15">
+        <v>516</v>
+      </c>
+      <c r="E15">
+        <v>1028</v>
+      </c>
+      <c r="F15">
+        <v>2052</v>
+      </c>
+      <c r="G15">
+        <v>4100</v>
+      </c>
+      <c r="H15">
+        <v>8196</v>
       </c>
     </row>
   </sheetData>
@@ -1872,15 +6527,16 @@
     <mergeCell ref="M1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A41E827-884B-42E7-ADBE-C28ED86A1F23}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,31 +6547,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1941,7 +6597,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1967,7 +6623,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1993,7 +6649,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2019,7 +6675,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2045,7 +6701,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2071,7 +6727,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2096,51 +6752,209 @@
         <v>8.0559999999999992</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>148</v>
+      </c>
+      <c r="D11">
+        <v>295</v>
+      </c>
+      <c r="E11">
+        <v>626</v>
+      </c>
+      <c r="F11">
+        <v>1219</v>
+      </c>
+      <c r="G11">
+        <v>2439</v>
+      </c>
+      <c r="H11">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>131</v>
+      </c>
+      <c r="C12">
+        <v>259</v>
+      </c>
+      <c r="D12">
+        <v>515</v>
+      </c>
+      <c r="E12">
+        <v>1027</v>
+      </c>
+      <c r="F12">
+        <v>2051</v>
+      </c>
+      <c r="G12">
+        <v>4099</v>
+      </c>
+      <c r="H12">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>148</v>
+      </c>
+      <c r="D14">
+        <v>295</v>
+      </c>
+      <c r="E14">
+        <v>626</v>
+      </c>
+      <c r="F14">
+        <v>1220</v>
+      </c>
+      <c r="G14">
+        <v>2439</v>
+      </c>
+      <c r="H14">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>132</v>
+      </c>
+      <c r="C15">
+        <v>260</v>
+      </c>
+      <c r="D15">
+        <v>516</v>
+      </c>
+      <c r="E15">
+        <v>1028</v>
+      </c>
+      <c r="F15">
+        <v>2052</v>
+      </c>
+      <c r="G15">
+        <v>4100</v>
+      </c>
+      <c r="H15">
+        <v>8196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8295BFD4-9DC9-4C9A-8372-28715755DB8C}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2166,7 +6980,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2192,7 +7006,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2218,7 +7032,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2244,7 +7058,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2270,7 +7084,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2296,7 +7110,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2321,51 +7135,209 @@
         <v>7.4530000000000003</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>194</v>
+      </c>
+      <c r="C10">
+        <v>386</v>
+      </c>
+      <c r="D10">
+        <v>770</v>
+      </c>
+      <c r="E10">
+        <v>1538</v>
+      </c>
+      <c r="F10">
+        <v>3074</v>
+      </c>
+      <c r="G10">
+        <v>6146</v>
+      </c>
+      <c r="H10">
+        <v>12290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>194</v>
+      </c>
+      <c r="C11">
+        <v>386</v>
+      </c>
+      <c r="D11">
+        <v>770</v>
+      </c>
+      <c r="E11">
+        <v>1538</v>
+      </c>
+      <c r="F11">
+        <v>3074</v>
+      </c>
+      <c r="G11">
+        <v>6146</v>
+      </c>
+      <c r="H11">
+        <v>12290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>194</v>
+      </c>
+      <c r="C12">
+        <v>386</v>
+      </c>
+      <c r="D12">
+        <v>770</v>
+      </c>
+      <c r="E12">
+        <v>1538</v>
+      </c>
+      <c r="F12">
+        <v>3074</v>
+      </c>
+      <c r="G12">
+        <v>6146</v>
+      </c>
+      <c r="H12">
+        <v>12290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>195</v>
+      </c>
+      <c r="C13">
+        <v>387</v>
+      </c>
+      <c r="D13">
+        <v>771</v>
+      </c>
+      <c r="E13">
+        <v>1539</v>
+      </c>
+      <c r="F13">
+        <v>3075</v>
+      </c>
+      <c r="G13">
+        <v>6147</v>
+      </c>
+      <c r="H13">
+        <v>12291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>195</v>
+      </c>
+      <c r="C14">
+        <v>387</v>
+      </c>
+      <c r="D14">
+        <v>771</v>
+      </c>
+      <c r="E14">
+        <v>1539</v>
+      </c>
+      <c r="F14">
+        <v>3075</v>
+      </c>
+      <c r="G14">
+        <v>6147</v>
+      </c>
+      <c r="H14">
+        <v>12291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>195</v>
+      </c>
+      <c r="C15">
+        <v>387</v>
+      </c>
+      <c r="D15">
+        <v>771</v>
+      </c>
+      <c r="E15">
+        <v>1539</v>
+      </c>
+      <c r="F15">
+        <v>3075</v>
+      </c>
+      <c r="G15">
+        <v>6147</v>
+      </c>
+      <c r="H15">
+        <v>12291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48F9CCC-47EB-4FAB-92CD-AF8601E2DFA1}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2391,7 +7363,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2417,7 +7389,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2443,7 +7415,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2469,7 +7441,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2495,7 +7467,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2521,7 +7493,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2546,60 +7518,218 @@
         <v>7.0759999999999996</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>259</v>
+      </c>
+      <c r="D10">
+        <v>515</v>
+      </c>
+      <c r="E10">
+        <v>1027</v>
+      </c>
+      <c r="F10">
+        <v>2051</v>
+      </c>
+      <c r="G10">
+        <v>4099</v>
+      </c>
+      <c r="H10">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>131</v>
+      </c>
+      <c r="C11">
+        <v>259</v>
+      </c>
+      <c r="D11">
+        <v>515</v>
+      </c>
+      <c r="E11">
+        <v>1027</v>
+      </c>
+      <c r="F11">
+        <v>2051</v>
+      </c>
+      <c r="G11">
+        <v>4099</v>
+      </c>
+      <c r="H11">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>131</v>
+      </c>
+      <c r="C12">
+        <v>259</v>
+      </c>
+      <c r="D12">
+        <v>515</v>
+      </c>
+      <c r="E12">
+        <v>1027</v>
+      </c>
+      <c r="F12">
+        <v>2051</v>
+      </c>
+      <c r="G12">
+        <v>4099</v>
+      </c>
+      <c r="H12">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>132</v>
+      </c>
+      <c r="C13">
+        <v>260</v>
+      </c>
+      <c r="D13">
+        <v>516</v>
+      </c>
+      <c r="E13">
+        <v>1028</v>
+      </c>
+      <c r="F13">
+        <v>2052</v>
+      </c>
+      <c r="G13">
+        <v>4100</v>
+      </c>
+      <c r="H13">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>132</v>
+      </c>
+      <c r="C14">
+        <v>260</v>
+      </c>
+      <c r="D14">
+        <v>516</v>
+      </c>
+      <c r="E14">
+        <v>1028</v>
+      </c>
+      <c r="F14">
+        <v>2052</v>
+      </c>
+      <c r="G14">
+        <v>4100</v>
+      </c>
+      <c r="H14">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>132</v>
+      </c>
+      <c r="C15">
+        <v>260</v>
+      </c>
+      <c r="D15">
+        <v>516</v>
+      </c>
+      <c r="E15">
+        <v>1028</v>
+      </c>
+      <c r="F15">
+        <v>2052</v>
+      </c>
+      <c r="G15">
+        <v>4100</v>
+      </c>
+      <c r="H15">
+        <v>8196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E24B80-23BA-4670-A3B9-5018272A01CA}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2625,7 +7755,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2649,18 +7779,18 @@
       <c r="H3">
         <v>301</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2686,7 +7816,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2712,7 +7842,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2738,7 +7868,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2764,7 +7894,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2789,60 +7919,218 @@
         <v>8.2319999999999993</v>
       </c>
     </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>122</v>
+      </c>
+      <c r="D11">
+        <v>241</v>
+      </c>
+      <c r="E11">
+        <v>473</v>
+      </c>
+      <c r="F11">
+        <v>983</v>
+      </c>
+      <c r="G11">
+        <v>1895</v>
+      </c>
+      <c r="H11">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>133</v>
+      </c>
+      <c r="C12">
+        <v>261</v>
+      </c>
+      <c r="D12">
+        <v>517</v>
+      </c>
+      <c r="E12">
+        <v>1029</v>
+      </c>
+      <c r="F12">
+        <v>2053</v>
+      </c>
+      <c r="G12">
+        <v>4101</v>
+      </c>
+      <c r="H12">
+        <v>8197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>122</v>
+      </c>
+      <c r="D14">
+        <v>241</v>
+      </c>
+      <c r="E14">
+        <v>473</v>
+      </c>
+      <c r="F14">
+        <v>983</v>
+      </c>
+      <c r="G14">
+        <v>1895</v>
+      </c>
+      <c r="H14">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>134</v>
+      </c>
+      <c r="C15">
+        <v>262</v>
+      </c>
+      <c r="D15">
+        <v>518</v>
+      </c>
+      <c r="E15">
+        <v>1030</v>
+      </c>
+      <c r="F15">
+        <v>2054</v>
+      </c>
+      <c r="G15">
+        <v>4102</v>
+      </c>
+      <c r="H15">
+        <v>8198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB42CDD6-E79B-46D8-999D-4F0F638D6E86}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2868,7 +8156,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2892,18 +8180,18 @@
       <c r="H3">
         <v>465</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2929,7 +8217,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2955,7 +8243,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2981,7 +8269,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3007,7 +8295,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3032,51 +8320,590 @@
         <v>7.24</v>
       </c>
     </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>139</v>
+      </c>
+      <c r="D10">
+        <v>267</v>
+      </c>
+      <c r="E10">
+        <v>523</v>
+      </c>
+      <c r="F10">
+        <v>1035</v>
+      </c>
+      <c r="G10">
+        <v>2059</v>
+      </c>
+      <c r="H10">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>207</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>785</v>
+      </c>
+      <c r="E11">
+        <v>1553</v>
+      </c>
+      <c r="F11">
+        <v>3089</v>
+      </c>
+      <c r="G11">
+        <v>6161</v>
+      </c>
+      <c r="H11">
+        <v>12305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>216</v>
+      </c>
+      <c r="C12">
+        <v>408</v>
+      </c>
+      <c r="D12">
+        <v>792</v>
+      </c>
+      <c r="E12">
+        <v>1560</v>
+      </c>
+      <c r="F12">
+        <v>3096</v>
+      </c>
+      <c r="G12">
+        <v>6168</v>
+      </c>
+      <c r="H12">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>127</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="E14">
+        <v>511</v>
+      </c>
+      <c r="F14">
+        <v>1023</v>
+      </c>
+      <c r="G14">
+        <v>2047</v>
+      </c>
+      <c r="H14">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>132</v>
+      </c>
+      <c r="D15">
+        <v>260</v>
+      </c>
+      <c r="E15">
+        <v>516</v>
+      </c>
+      <c r="F15">
+        <v>1028</v>
+      </c>
+      <c r="G15">
+        <v>2052</v>
+      </c>
+      <c r="H15">
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620BC32-9C72-4322-B8A0-FB5D6F262CC8}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D920C15A-8F0F-48C0-B6D4-B9BC44F8D390}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4">
+        <v>256</v>
+      </c>
+      <c r="D1" s="4">
+        <v>512</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4096</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>83</v>
+      </c>
+      <c r="C2" s="6">
+        <v>87</v>
+      </c>
+      <c r="D2" s="6">
+        <v>91</v>
+      </c>
+      <c r="E2" s="6">
+        <v>93</v>
+      </c>
+      <c r="F2" s="6">
+        <v>101</v>
+      </c>
+      <c r="G2" s="6">
+        <v>109</v>
+      </c>
+      <c r="H2" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>255</v>
+      </c>
+      <c r="C3" s="6">
+        <v>270</v>
+      </c>
+      <c r="D3" s="6">
+        <v>280</v>
+      </c>
+      <c r="E3" s="6">
+        <v>290</v>
+      </c>
+      <c r="F3" s="6">
+        <v>293</v>
+      </c>
+      <c r="G3" s="6">
+        <v>312</v>
+      </c>
+      <c r="H3" s="6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>171</v>
+      </c>
+      <c r="C4" s="6">
+        <v>199</v>
+      </c>
+      <c r="D4" s="6">
+        <v>211</v>
+      </c>
+      <c r="E4" s="6">
+        <v>223</v>
+      </c>
+      <c r="F4" s="6">
+        <v>235</v>
+      </c>
+      <c r="G4" s="6">
+        <v>247</v>
+      </c>
+      <c r="H4" s="6">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6.6929999999999996</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6.5369999999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7.5369999999999999</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7.7320000000000002</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7.3719999999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7.2889999999999997</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>134</v>
+      </c>
+      <c r="D10">
+        <v>262</v>
+      </c>
+      <c r="E10">
+        <v>518</v>
+      </c>
+      <c r="F10">
+        <v>1030</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>134</v>
+      </c>
+      <c r="D11">
+        <v>262</v>
+      </c>
+      <c r="E11">
+        <v>518</v>
+      </c>
+      <c r="F11">
+        <v>1030</v>
+      </c>
+      <c r="G11">
+        <v>2052</v>
+      </c>
+      <c r="H11">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>76</v>
+      </c>
+      <c r="C12">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>262</v>
+      </c>
+      <c r="E12">
+        <v>518</v>
+      </c>
+      <c r="F12">
+        <v>1030</v>
+      </c>
+      <c r="G12">
+        <v>2054</v>
+      </c>
+      <c r="H12">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>132</v>
+      </c>
+      <c r="D13">
+        <v>260</v>
+      </c>
+      <c r="E13">
+        <v>516</v>
+      </c>
+      <c r="F13">
+        <v>1028</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>132</v>
+      </c>
+      <c r="D14">
+        <v>260</v>
+      </c>
+      <c r="E14">
+        <v>516</v>
+      </c>
+      <c r="F14">
+        <v>1028</v>
+      </c>
+      <c r="G14">
+        <v>2050</v>
+      </c>
+      <c r="H14">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>132</v>
+      </c>
+      <c r="D15">
+        <v>260</v>
+      </c>
+      <c r="E15">
+        <v>516</v>
+      </c>
+      <c r="F15">
+        <v>1028</v>
+      </c>
+      <c r="G15">
+        <v>2052</v>
+      </c>
+      <c r="H15">
+        <v>4100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620BC32-9C72-4322-B8A0-FB5D6F262CC8}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>256</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>512</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>1024</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2048</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>4096</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>8192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -3102,7 +8929,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3128,7 +8955,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3154,7 +8981,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3180,7 +9007,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3206,7 +9033,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3232,7 +9059,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3257,232 +9084,164 @@
         <v>5.73</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>139</v>
+      </c>
+      <c r="E10">
+        <v>267</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1035</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>268</v>
+      </c>
+      <c r="F11">
+        <v>524</v>
+      </c>
+      <c r="G11">
+        <v>1036</v>
+      </c>
+      <c r="H11">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>143</v>
+      </c>
+      <c r="E12">
+        <v>272</v>
+      </c>
+      <c r="F12">
+        <v>529</v>
+      </c>
+      <c r="G12">
+        <v>1040</v>
+      </c>
+      <c r="H12">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>134</v>
+      </c>
+      <c r="E13">
+        <v>262</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>1030</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>262</v>
+      </c>
+      <c r="F14">
+        <v>517</v>
+      </c>
+      <c r="G14">
+        <v>1030</v>
+      </c>
+      <c r="H14">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>134</v>
+      </c>
+      <c r="E15">
+        <v>262</v>
+      </c>
+      <c r="F15">
+        <v>518</v>
+      </c>
+      <c r="G15">
+        <v>1030</v>
+      </c>
+      <c r="H15">
+        <v>2054</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555EC2DB-4136-4E77-99D8-5D03F27EBEFD}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
-        <v>128</v>
-      </c>
-      <c r="C1" s="5">
-        <v>256</v>
-      </c>
-      <c r="D1" s="5">
-        <v>512</v>
-      </c>
-      <c r="E1" s="5">
-        <v>1024</v>
-      </c>
-      <c r="F1" s="5">
-        <v>2048</v>
-      </c>
-      <c r="G1" s="5">
-        <v>4096</v>
-      </c>
-      <c r="H1" s="5">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>38</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>42</v>
-      </c>
-      <c r="E2">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>48</v>
-      </c>
-      <c r="G2">
-        <v>56</v>
-      </c>
-      <c r="H2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>120</v>
-      </c>
-      <c r="C3">
-        <v>118</v>
-      </c>
-      <c r="D3">
-        <v>125</v>
-      </c>
-      <c r="E3">
-        <v>131</v>
-      </c>
-      <c r="F3">
-        <v>126</v>
-      </c>
-      <c r="G3">
-        <v>137</v>
-      </c>
-      <c r="H3">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>108</v>
-      </c>
-      <c r="C4">
-        <v>117</v>
-      </c>
-      <c r="D4">
-        <v>126</v>
-      </c>
-      <c r="E4">
-        <v>133</v>
-      </c>
-      <c r="F4">
-        <v>138</v>
-      </c>
-      <c r="G4">
-        <v>149</v>
-      </c>
-      <c r="H4">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5.3529999999999998</v>
-      </c>
-      <c r="C8">
-        <v>5.8789999999999996</v>
-      </c>
-      <c r="D8">
-        <v>6.3170000000000002</v>
-      </c>
-      <c r="E8">
-        <v>6.1639999999999997</v>
-      </c>
-      <c r="F8">
-        <v>6.4889999999999999</v>
-      </c>
-      <c r="G8">
-        <v>6.5270000000000001</v>
-      </c>
-      <c r="H8">
-        <v>7.4109999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7f3f8e23c5cac0d/Documentos/CAM_Windows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1919" documentId="13_ncr:1_{018A9B68-6C3D-4EE8-8E1E-431342C0410A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D6BA838-3DE7-4FD0-9CB7-1BEA27E96F42}"/>
+  <xr:revisionPtr revIDLastSave="1956" documentId="13_ncr:1_{018A9B68-6C3D-4EE8-8E1E-431342C0410A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD463C81-CEDE-4DBF-817B-796B1A282032}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" firstSheet="5" activeTab="6" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
+    <workbookView xWindow="75" yWindow="1260" windowWidth="16065" windowHeight="11385" tabRatio="824" firstSheet="6" activeTab="13" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
   </bookViews>
   <sheets>
-    <sheet name="CAM Basica" sheetId="21" r:id="rId1"/>
+    <sheet name="CAM Simple" sheetId="21" r:id="rId1"/>
     <sheet name="CAM Simple Optimizada" sheetId="6" r:id="rId2"/>
     <sheet name="CAM Simple-Opt-Con parada" sheetId="7" r:id="rId3"/>
     <sheet name="CAM Binaria" sheetId="8" r:id="rId4"/>
@@ -1465,7 +1465,85 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> único defecto de este modelo de CAM es que necesitas dos memorias del tamaño de N para almacenar los índices de cada nodo, y que cada vez que se actualice el árbol habrá que actualizar los índices también. </a:t>
+            <a:t> único defecto de este modelo de CAM es que necesitas memoria adicional para los indices, cuyo tamaño es N para almacenar los índices de cada nodo, y que cada vez que se actualice el árbol habrá que actualizar los índices también. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A959B6-6144-4A91-B914-F03E86860954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="2733675"/>
+          <a:ext cx="4667250" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>No merece la pena dar dos hijos por ciclo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> porque no vamos a tener que consumir mas de dos hijos por ciclo</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
@@ -3360,7 +3438,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4602,7 +4680,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,8 +5445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48CE571-B250-4D9B-A485-A8953DCBB074}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5411,13 +5489,13 @@
         <v>31</v>
       </c>
       <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
         <v>31</v>
       </c>
-      <c r="E2">
-        <v>33</v>
-      </c>
       <c r="F2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -5431,22 +5509,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>71</v>
       </c>
       <c r="D3">
+        <v>76</v>
+      </c>
+      <c r="E3">
         <v>78</v>
       </c>
-      <c r="E3">
-        <v>79</v>
-      </c>
       <c r="F3">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <v>102</v>
@@ -5457,22 +5535,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E4">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -5509,25 +5587,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5561,22 +5639,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.7629999999999999</v>
+        <v>6.6230000000000002</v>
       </c>
       <c r="C8">
-        <v>7.343</v>
+        <v>7.2430000000000003</v>
       </c>
       <c r="D8">
-        <v>7.1189999999999998</v>
+        <v>7.86</v>
       </c>
       <c r="E8">
-        <v>7.2350000000000003</v>
+        <v>7.5350000000000001</v>
       </c>
       <c r="F8">
-        <v>7.52</v>
+        <v>7.6109999999999998</v>
       </c>
       <c r="G8">
-        <v>7.7080000000000002</v>
+        <v>8.6029999999999998</v>
       </c>
       <c r="H8">
         <v>7.8789999999999996</v>
@@ -5740,7 +5818,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5749,7 +5828,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8085,8 +8164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB42CDD6-E79B-46D8-999D-4F0F638D6E86}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8868,7 +8947,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7f3f8e23c5cac0d/Documentos/CAM_Windows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1956" documentId="13_ncr:1_{018A9B68-6C3D-4EE8-8E1E-431342C0410A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD463C81-CEDE-4DBF-817B-796B1A282032}"/>
+  <xr:revisionPtr revIDLastSave="1974" documentId="13_ncr:1_{018A9B68-6C3D-4EE8-8E1E-431342C0410A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED045732-406C-44EE-B2BA-851BDB680044}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1260" windowWidth="16065" windowHeight="11385" tabRatio="824" firstSheet="6" activeTab="13" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" firstSheet="6" activeTab="13" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
   </bookViews>
   <sheets>
     <sheet name="CAM Simple" sheetId="21" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="14">
   <si>
     <t>Como podemos comprobar, no hay prácticamente cambios en utilizar la estrategia de usar el almacenamiento de los datos del árbol tanto en anchura como en profundidad. El coste de recursos crece lógicamente con el crecimiento del árbol, siendo lo más destacable el requerimiento de usar 15 BRAMs para guardar los datos del árbol. El uso tanto de FFs como de LUTs crece también pero de manera muy poco significativa. Vemos que la latencia sigue el orden de O(2N) siendo N el tamaño del árbol.</t>
   </si>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +132,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +161,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -181,14 +193,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -202,10 +215,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="60% - Énfasis5" xfId="4" builtinId="48"/>
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Énfasis2" xfId="5" builtinId="33"/>
     <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Texto explicativo" xfId="2" builtinId="53"/>
@@ -1279,15 +1294,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>236376</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>103987</xdr:rowOff>
+      <xdr:colOff>341151</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>189712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1310,7 +1325,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3114675"/>
+          <a:off x="114300" y="4914900"/>
           <a:ext cx="7322976" cy="4799812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1475,16 +1490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1499,7 +1514,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7943850" y="2733675"/>
+          <a:off x="7248525" y="2466975"/>
           <a:ext cx="4667250" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5443,10 +5458,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48CE571-B250-4D9B-A485-A8953DCBB074}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5814,6 +5829,72 @@
       </c>
       <c r="H15">
         <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>643</v>
+      </c>
+      <c r="H18">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>42563</v>
+      </c>
+      <c r="H19">
+        <v>87333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>645</v>
+      </c>
+      <c r="H21">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>42565</v>
+      </c>
+      <c r="H22">
+        <v>87344</v>
       </c>
     </row>
   </sheetData>

--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7f3f8e23c5cac0d/Documentos/CAM_Windows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive\Documentos\CAM_Windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1974" documentId="13_ncr:1_{018A9B68-6C3D-4EE8-8E1E-431342C0410A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED045732-406C-44EE-B2BA-851BDB680044}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CF8AFC-F4A9-47FB-B302-D2AE01524719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" firstSheet="6" activeTab="13" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" firstSheet="7" activeTab="11" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
   </bookViews>
   <sheets>
     <sheet name="CAM Simple" sheetId="21" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="CAM Binaria Optimizada" sheetId="9" r:id="rId5"/>
     <sheet name="CAM Binaria-Opt con parada" sheetId="10" r:id="rId6"/>
     <sheet name="CAM Binaria con Reader" sheetId="11" r:id="rId7"/>
-    <sheet name="CAM binaria reader con 2 salida" sheetId="25" r:id="rId8"/>
-    <sheet name="CAM Binaria con 2 submemorias" sheetId="12" r:id="rId9"/>
-    <sheet name="CAM hash" sheetId="16" r:id="rId10"/>
-    <sheet name="CAM hash optimizada" sheetId="22" r:id="rId11"/>
-    <sheet name="CAM hash binaria" sheetId="17" r:id="rId12"/>
-    <sheet name="CAM multi hax" sheetId="1" r:id="rId13"/>
-    <sheet name="CAM hash ideal" sheetId="23" r:id="rId14"/>
-    <sheet name="CAM hash 2 memorias" sheetId="24" r:id="rId15"/>
+    <sheet name="CAM Binaria con 2 submemorias" sheetId="12" r:id="rId8"/>
+    <sheet name="CAM hash" sheetId="16" r:id="rId9"/>
+    <sheet name="CAM hash optimizada" sheetId="22" r:id="rId10"/>
+    <sheet name="CAM hash binaria" sheetId="17" r:id="rId11"/>
+    <sheet name="CAM hash con busq. binaria yMUX" sheetId="1" r:id="rId12"/>
+    <sheet name="CAM hash ideal" sheetId="23" r:id="rId13"/>
+    <sheet name="CAM hash 2 memorias" sheetId="24" r:id="rId14"/>
+    <sheet name="CAM propuesta de Manu" sheetId="26" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="14">
   <si>
     <t>Como podemos comprobar, no hay prácticamente cambios en utilizar la estrategia de usar el almacenamiento de los datos del árbol tanto en anchura como en profundidad. El coste de recursos crece lógicamente con el crecimiento del árbol, siendo lo más destacable el requerimiento de usar 15 BRAMs para guardar los datos del árbol. El uso tanto de FFs como de LUTs crece también pero de manera muy poco significativa. Vemos que la latencia sigue el orden de O(2N) siendo N el tamaño del árbol.</t>
   </si>
@@ -208,14 +208,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Énfasis5" xfId="4" builtinId="48"/>
@@ -454,221 +454,6 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>943672</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>103987</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE02C19-911D-45A0-B37B-0E75BCB5370B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3209925"/>
-          <a:ext cx="7468297" cy="4895062"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73310DFA-5ED4-4A04-8C22-ED9993AD0561}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7658100" y="428625"/>
-          <a:ext cx="4467225" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>- Sin optimizar,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> esta CAM tarda entre 1/Numero de buckets y N ciclos en  realizar la busqueda</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>- Buen timing sin necesitar de recursos excesivos. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC366FF-2E8C-49BA-AF6E-2EF04A7AE280}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7629525" y="1447800"/>
-          <a:ext cx="4381500" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF7C80"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>- Se necesita rellenar la</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> tabla hash y almacenarla previamente en la CAM.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>- La mejora depende del número de buckets (EN ESTE CASO HEMOS USADO 8)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -861,10 +646,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E0B8B9-581A-4E84-92C3-F1163B4B0E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="3048000"/>
+          <a:ext cx="4867276" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Igual que la CAM hash, pero optimizando código y usando pragmas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> de HLS.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -974,28 +837,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Con optimizacion</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> y doble acceso a memoria, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>esta CAM es una</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> buena candidata, con un equilibrio entre coste de recursos, latencia, intervalo...</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>- En el peor de los casos, el metodo tarda menos de 1/3*N</a:t>
-          </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1065,11 +906,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Timing elevado y coste en recursos más elevado de lo normal, pero aún</a:t>
+            <a:t>Tiene un timing elevado y además, la latencia</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> es asumible y viable. </a:t>
+            <a:t> es elevada en el peor de los casos</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
@@ -1132,10 +973,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CuadroTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61599FCA-90EF-4CAE-87AD-572878E0A0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="3429000"/>
+          <a:ext cx="4867276" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Igual que la CAM hash optimizada,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> pero intentamos hacer doble acceso a memoria por ciclo. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1203,7 +1122,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> En el peor de los casos, el metodo tarda menos de 1/3*N. En el mejor, tarda 1 ciclo</a:t>
+            <a:t> En el peor de los casos, el metodo tarda 1/2*N. En el mejor, tarda 1 ciclo</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
@@ -1278,9 +1197,132 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> es asumible y viable. </a:t>
+            <a:t> es asumible y viable.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Latencia es más alta de lo normal. </a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>340627</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>132463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7BE683-8E2D-4863-B5FB-FEB7495F4CCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3562350"/>
+          <a:ext cx="6865252" cy="4190113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0CFB6F-7373-49A6-967B-2BC80AB0506E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="3048000"/>
+          <a:ext cx="4867276" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Una CAM hash combinada con un método de busqueda binario con multiplexor. </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1289,7 +1331,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1569,7 +1611,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1639,6 +1681,89 @@
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
             <a:t> lo descartaremos. No hay ganancia en ningún aspecto con respecto a diseños más simples de CAM hash: Nos cuesta más recursos, timing, lartencia, intervalos.... Y aparte, es una CAM compleja de diseñar, sobre todo por la función hash necesaria </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9ACBAC-8AEC-428B-8FD3-69D261EA9EAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019925" y="381000"/>
+          <a:ext cx="4867276" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Mi propuesta:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> Utilizar una memoria para almacenar todos los hijos (Hash ideal) y, para los padres, realizar un metodo de búsqueda binaria lo más eficiente posible. </a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
@@ -2284,6 +2409,84 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E860389A-DAD1-462C-AA17-C67F593CC843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="2857500"/>
+          <a:ext cx="4867276" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Una CAM que accede</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> dos veces por ciclo a la memoria para intentar obtener más rendimiento. No obtenemos mejor resultado respecto a la CAM simple (¿Debido a que la memoria es Dual-port pero es uno de escritura y otro de lectura y, por ello, no hay ganancia?</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2498,6 +2701,84 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680AD94F-6EED-4DA0-83CA-79A3AAAEB15E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="3048000"/>
+          <a:ext cx="4867276" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>La CAM binaria utilizando directivas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> y optimizando el código. Ligera ganancia pero sigue sin ser mejor que la simple. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2545,6 +2826,84 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35E54B1-9CBF-4A52-88F9-DE45E9C119C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="2667000"/>
+          <a:ext cx="4867276" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>YA NO ES RENTABLE (NO HAY CONDICION DE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> PARADA EN EL PADRE)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2759,104 +3118,89 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D057C384-F1BF-48F4-9D5D-4AB51692251D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="3238500"/>
+          <a:ext cx="4867276" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Un preprocesador se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> encarga de mandar a los procesos de busqueda cada uno de los nodos para que vayan analizando. La salida se manda a un multiplexor. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>631745</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47017</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37757888-628F-4542-BCD8-570B94C2574B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="123825" y="3238500"/>
-          <a:ext cx="7556420" cy="4047517"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>456779</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123719</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57139D13-D6E4-4B83-93A9-C81BDAF6BD29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9067800" y="4038600"/>
-          <a:ext cx="3371429" cy="847619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -2923,11 +3267,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>En</a:t>
+            <a:t>Una</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> esta versión no tenemos condiciones de parada, debido a que nos empeora el tiempo medio que tardaremos en el programa. Esta es la prueba con la versión del árbol de 4096. Podemos comprobar que el minimo es muy pequeño pero la media es de casi 500 ciclos más que sin condición de parada.</a:t>
+            <a:t> versión de la CAM que utiliza un multiplexor junto con la memoria del árbol dividida en 2 para paralelizar el proceso al máximo. Problema de esto: Más consumo de memorias, lo cual para árboles grandes puede ser un problema </a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
@@ -2962,7 +3306,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3143,6 +3487,299 @@
           <a:r>
             <a:rPr lang="es-ES" sz="1100" b="0" baseline="0"/>
             <a:t>- Mayor coste en recursos. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>943672</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE02C19-911D-45A0-B37B-0E75BCB5370B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3209925"/>
+          <a:ext cx="7468297" cy="4895062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73310DFA-5ED4-4A04-8C22-ED9993AD0561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="428625"/>
+          <a:ext cx="4467225" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- Sin optimizar,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> esta CAM tarda entre 1/Numero de buckets y N ciclos en  realizar la busqueda</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>- Buen timing sin necesitar de recursos excesivos. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC366FF-2E8C-49BA-AF6E-2EF04A7AE280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="1447800"/>
+          <a:ext cx="4381500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF7C80"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- Se necesita rellenar la</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> tabla hash y almacenarla previamente en la CAM.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>- La mejora depende del número de buckets (EN ESTE CASO HEMOS USADO 8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EE5451-59EE-4BEA-8F4E-F52B5D6FF05B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="2457450"/>
+          <a:ext cx="4867276" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Una CAM que utiliza una tabla HASH donde se almacenan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> unos indices para un rango de nodos determinado. En este caso, la busqueda del padre es como la simple optimizada (No podemos tener indices de dónde están los padres de cada nodo). </a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
@@ -3712,7 +4349,7 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -3738,7 +4375,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -3764,7 +4401,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -3790,7 +4427,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -3816,7 +4453,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -3842,7 +4479,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -3868,50 +4505,50 @@
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
-      <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
-      <c r="M179" s="9"/>
-      <c r="N179" s="9"/>
-      <c r="O179" s="9"/>
-      <c r="P179" s="9"/>
-      <c r="Q179" s="9"/>
-      <c r="R179" s="9"/>
-      <c r="S179" s="9"/>
-      <c r="T179" s="9"/>
+      <c r="A179" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10"/>
+      <c r="O179" s="10"/>
+      <c r="P179" s="10"/>
+      <c r="Q179" s="10"/>
+      <c r="R179" s="10"/>
+      <c r="S179" s="10"/>
+      <c r="T179" s="10"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="9"/>
-      <c r="J180" s="9"/>
-      <c r="K180" s="9"/>
-      <c r="L180" s="9"/>
-      <c r="M180" s="9"/>
-      <c r="N180" s="9"/>
-      <c r="O180" s="9"/>
-      <c r="P180" s="9"/>
-      <c r="Q180" s="9"/>
-      <c r="R180" s="9"/>
-      <c r="S180" s="9"/>
-      <c r="T180" s="9"/>
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="10"/>
+      <c r="N180" s="10"/>
+      <c r="O180" s="10"/>
+      <c r="P180" s="10"/>
+      <c r="Q180" s="10"/>
+      <c r="R180" s="10"/>
+      <c r="S180" s="10"/>
+      <c r="T180" s="10"/>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L184" s="1"/>
@@ -3927,11 +4564,775 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555EC2DB-4136-4E77-99D8-5D03F27EBEFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9E203-65D6-4A68-AE2D-59D406207F4D}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4">
+        <v>256</v>
+      </c>
+      <c r="D1" s="4">
+        <v>512</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4096</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <v>88</v>
+      </c>
+      <c r="E2">
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>110</v>
+      </c>
+      <c r="G2">
+        <v>107</v>
+      </c>
+      <c r="H2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>268</v>
+      </c>
+      <c r="C3">
+        <v>269</v>
+      </c>
+      <c r="D3">
+        <v>290</v>
+      </c>
+      <c r="E3">
+        <v>298</v>
+      </c>
+      <c r="F3">
+        <v>325</v>
+      </c>
+      <c r="G3">
+        <v>338</v>
+      </c>
+      <c r="H3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>202</v>
+      </c>
+      <c r="C4">
+        <v>215</v>
+      </c>
+      <c r="D4">
+        <v>222</v>
+      </c>
+      <c r="E4">
+        <v>228</v>
+      </c>
+      <c r="F4">
+        <v>245</v>
+      </c>
+      <c r="G4">
+        <v>251</v>
+      </c>
+      <c r="H4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7.2830000000000004</v>
+      </c>
+      <c r="C8">
+        <v>6.95</v>
+      </c>
+      <c r="D8">
+        <v>7.0220000000000002</v>
+      </c>
+      <c r="E8">
+        <v>7.08</v>
+      </c>
+      <c r="F8">
+        <v>7.2270000000000003</v>
+      </c>
+      <c r="G8">
+        <v>7.3360000000000003</v>
+      </c>
+      <c r="H8">
+        <v>7.5650000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>171</v>
+      </c>
+      <c r="E11">
+        <v>346</v>
+      </c>
+      <c r="F11">
+        <v>671</v>
+      </c>
+      <c r="G11">
+        <v>1367</v>
+      </c>
+      <c r="H11">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>135</v>
+      </c>
+      <c r="C12">
+        <v>263</v>
+      </c>
+      <c r="D12">
+        <v>519</v>
+      </c>
+      <c r="E12">
+        <v>1031</v>
+      </c>
+      <c r="F12">
+        <v>2055</v>
+      </c>
+      <c r="G12">
+        <v>4103</v>
+      </c>
+      <c r="H12">
+        <v>8199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>173</v>
+      </c>
+      <c r="E14">
+        <v>347</v>
+      </c>
+      <c r="F14">
+        <v>672</v>
+      </c>
+      <c r="G14">
+        <v>1368</v>
+      </c>
+      <c r="H14">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>136</v>
+      </c>
+      <c r="C15">
+        <v>264</v>
+      </c>
+      <c r="D15">
+        <v>520</v>
+      </c>
+      <c r="E15">
+        <v>1032</v>
+      </c>
+      <c r="F15">
+        <v>2056</v>
+      </c>
+      <c r="G15">
+        <v>4104</v>
+      </c>
+      <c r="H15">
+        <v>8200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8933FF-E9C9-4567-A68E-420C9697A774}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4">
+        <v>256</v>
+      </c>
+      <c r="D1" s="4">
+        <v>512</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4096</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>135</v>
+      </c>
+      <c r="C2">
+        <v>137</v>
+      </c>
+      <c r="D2">
+        <v>146</v>
+      </c>
+      <c r="E2">
+        <v>146</v>
+      </c>
+      <c r="F2">
+        <v>176</v>
+      </c>
+      <c r="G2">
+        <v>188</v>
+      </c>
+      <c r="H2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>401</v>
+      </c>
+      <c r="C3">
+        <v>432</v>
+      </c>
+      <c r="D3">
+        <v>462</v>
+      </c>
+      <c r="E3">
+        <v>457</v>
+      </c>
+      <c r="F3">
+        <v>541</v>
+      </c>
+      <c r="G3">
+        <v>591</v>
+      </c>
+      <c r="H3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>304</v>
+      </c>
+      <c r="C4">
+        <v>336</v>
+      </c>
+      <c r="D4">
+        <v>350</v>
+      </c>
+      <c r="E4">
+        <v>367</v>
+      </c>
+      <c r="F4">
+        <v>399</v>
+      </c>
+      <c r="G4">
+        <v>417</v>
+      </c>
+      <c r="H4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8.359</v>
+      </c>
+      <c r="C8">
+        <v>8.0980000000000008</v>
+      </c>
+      <c r="D8">
+        <v>7.984</v>
+      </c>
+      <c r="E8">
+        <v>7.6920000000000002</v>
+      </c>
+      <c r="F8">
+        <v>7.907</v>
+      </c>
+      <c r="G8">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="H8">
+        <v>7.891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>172</v>
+      </c>
+      <c r="E11">
+        <v>347</v>
+      </c>
+      <c r="F11">
+        <v>672</v>
+      </c>
+      <c r="G11">
+        <v>1368</v>
+      </c>
+      <c r="H11">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>137</v>
+      </c>
+      <c r="C12">
+        <v>265</v>
+      </c>
+      <c r="D12">
+        <v>521</v>
+      </c>
+      <c r="E12">
+        <v>1033</v>
+      </c>
+      <c r="F12">
+        <v>2057</v>
+      </c>
+      <c r="G12">
+        <v>4105</v>
+      </c>
+      <c r="H12">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>93</v>
+      </c>
+      <c r="D14">
+        <v>173</v>
+      </c>
+      <c r="E14">
+        <v>348</v>
+      </c>
+      <c r="F14">
+        <v>673</v>
+      </c>
+      <c r="G14">
+        <v>1369</v>
+      </c>
+      <c r="H14">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>138</v>
+      </c>
+      <c r="C15">
+        <v>266</v>
+      </c>
+      <c r="D15">
+        <v>522</v>
+      </c>
+      <c r="E15">
+        <v>1034</v>
+      </c>
+      <c r="F15">
+        <v>2058</v>
+      </c>
+      <c r="G15">
+        <v>4106</v>
+      </c>
+      <c r="H15">
+        <v>8202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E1498-3E67-4831-9DD3-2D18DC5DD20B}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,100 +5370,100 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>38</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>42</v>
-      </c>
-      <c r="E2">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>48</v>
-      </c>
-      <c r="G2">
-        <v>56</v>
+      <c r="B2" s="8">
+        <v>162</v>
+      </c>
+      <c r="C2" s="8">
+        <v>174</v>
+      </c>
+      <c r="D2" s="8">
+        <v>176</v>
+      </c>
+      <c r="E2" s="8">
+        <v>192</v>
+      </c>
+      <c r="F2" s="8">
+        <v>213</v>
+      </c>
+      <c r="G2" s="8">
+        <v>227</v>
       </c>
       <c r="H2">
-        <v>67</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>120</v>
-      </c>
-      <c r="C3">
-        <v>118</v>
-      </c>
-      <c r="D3">
-        <v>125</v>
-      </c>
-      <c r="E3">
-        <v>131</v>
-      </c>
-      <c r="F3">
-        <v>126</v>
-      </c>
-      <c r="G3">
-        <v>137</v>
+      <c r="B3" s="8">
+        <v>510</v>
+      </c>
+      <c r="C3" s="8">
+        <v>532</v>
+      </c>
+      <c r="D3" s="8">
+        <v>554</v>
+      </c>
+      <c r="E3" s="8">
+        <v>584</v>
+      </c>
+      <c r="F3" s="8">
+        <v>641</v>
+      </c>
+      <c r="G3" s="8">
+        <v>667</v>
       </c>
       <c r="H3">
-        <v>141</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>108</v>
-      </c>
-      <c r="C4">
-        <v>117</v>
-      </c>
-      <c r="D4">
-        <v>126</v>
-      </c>
-      <c r="E4">
-        <v>133</v>
-      </c>
-      <c r="F4">
-        <v>138</v>
-      </c>
-      <c r="G4">
-        <v>149</v>
+      <c r="B4" s="8">
+        <v>407</v>
+      </c>
+      <c r="C4" s="8">
+        <v>441</v>
+      </c>
+      <c r="D4" s="8">
+        <v>465</v>
+      </c>
+      <c r="E4" s="8">
+        <v>488</v>
+      </c>
+      <c r="F4" s="8">
+        <v>526</v>
+      </c>
+      <c r="G4" s="8">
+        <v>550</v>
       </c>
       <c r="H4">
-        <v>156</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
         <v>0</v>
       </c>
       <c r="H5">
@@ -4073,22 +5474,22 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>6</v>
       </c>
       <c r="H6">
@@ -4099,972 +5500,208 @@
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="B7" s="8">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8">
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>5.3529999999999998</v>
-      </c>
-      <c r="C8">
-        <v>5.8789999999999996</v>
-      </c>
-      <c r="D8">
-        <v>6.3170000000000002</v>
-      </c>
-      <c r="E8">
-        <v>6.1639999999999997</v>
-      </c>
-      <c r="F8">
-        <v>6.4889999999999999</v>
-      </c>
-      <c r="G8">
-        <v>6.5270000000000001</v>
+      <c r="B8" s="8">
+        <v>7.2519999999999998</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7.8940000000000001</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7.8380000000000001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7.5449999999999999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7.8840000000000003</v>
+      </c>
+      <c r="G8" s="8">
+        <v>7.9909999999999997</v>
       </c>
       <c r="H8">
-        <v>7.4109999999999996</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>50</v>
       </c>
       <c r="E10">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>492</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>926</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="D11">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="E11">
-        <v>364</v>
+        <v>603</v>
       </c>
       <c r="F11">
-        <v>730</v>
+        <v>1160</v>
       </c>
       <c r="G11">
-        <v>1437</v>
+        <v>2325</v>
       </c>
       <c r="H11">
-        <v>2841</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="C12">
-        <v>262</v>
+        <v>419</v>
       </c>
       <c r="D12">
-        <v>518</v>
+        <v>804</v>
       </c>
       <c r="E12">
-        <v>1030</v>
+        <v>1571</v>
       </c>
       <c r="F12">
-        <v>2054</v>
+        <v>3107</v>
       </c>
       <c r="G12">
-        <v>4102</v>
+        <v>6180</v>
       </c>
       <c r="H12">
-        <v>8198</v>
+        <v>12323</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="E14">
-        <v>366</v>
+        <v>200</v>
       </c>
       <c r="F14">
-        <v>731</v>
+        <v>385</v>
       </c>
       <c r="G14">
-        <v>1439</v>
+        <v>773</v>
       </c>
       <c r="H14">
-        <v>2843</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C15">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="D15">
-        <v>519</v>
+        <v>267</v>
       </c>
       <c r="E15">
-        <v>1031</v>
+        <v>523</v>
       </c>
       <c r="F15">
-        <v>2055</v>
+        <v>1035</v>
       </c>
       <c r="G15">
-        <v>4103</v>
+        <v>2059</v>
       </c>
       <c r="H15">
-        <v>8199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9E203-65D6-4A68-AE2D-59D406207F4D}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4">
-        <v>128</v>
-      </c>
-      <c r="C1" s="4">
-        <v>256</v>
-      </c>
-      <c r="D1" s="4">
-        <v>512</v>
-      </c>
-      <c r="E1" s="4">
-        <v>1024</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="G1" s="4">
-        <v>4096</v>
-      </c>
-      <c r="H1" s="4">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>77</v>
-      </c>
-      <c r="C2">
-        <v>81</v>
-      </c>
-      <c r="D2">
-        <v>86</v>
-      </c>
-      <c r="E2">
-        <v>83</v>
-      </c>
-      <c r="F2">
-        <v>95</v>
-      </c>
-      <c r="G2">
-        <v>97</v>
-      </c>
-      <c r="H2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>253</v>
-      </c>
-      <c r="C3">
-        <v>246</v>
-      </c>
-      <c r="D3">
-        <v>266</v>
-      </c>
-      <c r="E3">
-        <v>256</v>
-      </c>
-      <c r="F3">
-        <v>290</v>
-      </c>
-      <c r="G3">
-        <v>306</v>
-      </c>
-      <c r="H3">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>118</v>
-      </c>
-      <c r="C4">
-        <v>192</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>204</v>
-      </c>
-      <c r="F4">
-        <v>215</v>
-      </c>
-      <c r="G4">
-        <v>215</v>
-      </c>
-      <c r="H4">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6.923</v>
-      </c>
-      <c r="C8">
-        <v>7.4260000000000002</v>
-      </c>
-      <c r="D8">
-        <v>8.4090000000000007</v>
-      </c>
-      <c r="E8">
-        <v>8.8650000000000002</v>
-      </c>
-      <c r="F8">
-        <v>8.3239999999999998</v>
-      </c>
-      <c r="G8">
-        <v>7.9059999999999997</v>
-      </c>
-      <c r="H8">
-        <v>8.3859999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>90</v>
-      </c>
-      <c r="F11">
-        <v>164</v>
-      </c>
-      <c r="G11">
-        <v>316</v>
-      </c>
-      <c r="H11">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>94</v>
-      </c>
-      <c r="E12">
-        <v>163</v>
-      </c>
-      <c r="F12">
-        <v>302</v>
-      </c>
-      <c r="G12">
-        <v>544</v>
-      </c>
-      <c r="H12">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>49</v>
-      </c>
-      <c r="E14">
-        <v>90</v>
-      </c>
-      <c r="F14">
-        <v>165</v>
-      </c>
-      <c r="G14">
-        <v>317</v>
-      </c>
-      <c r="H14">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>95</v>
-      </c>
-      <c r="E15">
-        <v>164</v>
-      </c>
-      <c r="F15">
-        <v>303</v>
-      </c>
-      <c r="G15">
-        <v>545</v>
-      </c>
-      <c r="H15">
-        <v>1176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8933FF-E9C9-4567-A68E-420C9697A774}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4">
-        <v>128</v>
-      </c>
-      <c r="C1" s="4">
-        <v>256</v>
-      </c>
-      <c r="D1" s="4">
-        <v>512</v>
-      </c>
-      <c r="E1" s="4">
-        <v>1024</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="G1" s="4">
-        <v>4096</v>
-      </c>
-      <c r="H1" s="4">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>141</v>
-      </c>
-      <c r="C2">
-        <v>140</v>
-      </c>
-      <c r="D2">
-        <v>163</v>
-      </c>
-      <c r="E2">
-        <v>171</v>
-      </c>
-      <c r="F2">
-        <v>165</v>
-      </c>
-      <c r="G2">
-        <v>187</v>
-      </c>
-      <c r="H2">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>412</v>
-      </c>
-      <c r="C3">
-        <v>428</v>
-      </c>
-      <c r="D3">
-        <v>500</v>
-      </c>
-      <c r="E3">
-        <v>529</v>
-      </c>
-      <c r="F3">
-        <v>497</v>
-      </c>
-      <c r="G3">
-        <v>554</v>
-      </c>
-      <c r="H3">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>318</v>
-      </c>
-      <c r="C4">
-        <v>336</v>
-      </c>
-      <c r="D4">
-        <v>359</v>
-      </c>
-      <c r="E4">
-        <v>376</v>
-      </c>
-      <c r="F4">
-        <v>403</v>
-      </c>
-      <c r="G4">
-        <v>416</v>
-      </c>
-      <c r="H4">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8.2149999999999999</v>
-      </c>
-      <c r="C8">
-        <v>7.8620000000000001</v>
-      </c>
-      <c r="D8">
-        <v>8.1440000000000001</v>
-      </c>
-      <c r="E8">
-        <v>8.109</v>
-      </c>
-      <c r="F8">
-        <v>8.1419999999999995</v>
-      </c>
-      <c r="G8">
-        <v>8.18</v>
-      </c>
-      <c r="H8">
-        <v>8.6809999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>71</v>
-      </c>
-      <c r="F11">
-        <v>131</v>
-      </c>
-      <c r="G11">
-        <v>250</v>
-      </c>
-      <c r="H11">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>51</v>
-      </c>
-      <c r="D12">
-        <v>93</v>
-      </c>
-      <c r="E12">
-        <v>143</v>
-      </c>
-      <c r="F12">
-        <v>287</v>
-      </c>
-      <c r="G12">
-        <v>537</v>
-      </c>
-      <c r="H12">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>41</v>
-      </c>
-      <c r="E14">
-        <v>72</v>
-      </c>
-      <c r="F14">
-        <v>131</v>
-      </c>
-      <c r="G14">
-        <v>250</v>
-      </c>
-      <c r="H14">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>94</v>
-      </c>
-      <c r="E15">
-        <v>144</v>
-      </c>
-      <c r="F15">
-        <v>288</v>
-      </c>
-      <c r="G15">
-        <v>538</v>
-      </c>
-      <c r="H15">
-        <v>1130</v>
+        <v>4107</v>
       </c>
     </row>
   </sheetData>
@@ -5074,394 +5711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E1498-3E67-4831-9DD3-2D18DC5DD20B}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4">
-        <v>128</v>
-      </c>
-      <c r="C1" s="4">
-        <v>256</v>
-      </c>
-      <c r="D1" s="4">
-        <v>512</v>
-      </c>
-      <c r="E1" s="4">
-        <v>1024</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="G1" s="4">
-        <v>4096</v>
-      </c>
-      <c r="H1" s="4">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>166</v>
-      </c>
-      <c r="C2">
-        <v>156</v>
-      </c>
-      <c r="D2">
-        <v>174</v>
-      </c>
-      <c r="E2">
-        <v>183</v>
-      </c>
-      <c r="F2">
-        <v>204</v>
-      </c>
-      <c r="G2">
-        <v>228</v>
-      </c>
-      <c r="H2">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>490</v>
-      </c>
-      <c r="C3">
-        <v>505</v>
-      </c>
-      <c r="D3">
-        <v>539</v>
-      </c>
-      <c r="E3">
-        <v>567</v>
-      </c>
-      <c r="F3">
-        <v>621</v>
-      </c>
-      <c r="G3">
-        <v>654</v>
-      </c>
-      <c r="H3">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>403</v>
-      </c>
-      <c r="C4">
-        <v>425</v>
-      </c>
-      <c r="D4">
-        <v>452</v>
-      </c>
-      <c r="E4">
-        <v>473</v>
-      </c>
-      <c r="F4">
-        <v>503</v>
-      </c>
-      <c r="G4">
-        <v>521</v>
-      </c>
-      <c r="H4">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8.1379999999999999</v>
-      </c>
-      <c r="C8">
-        <v>8.1329999999999991</v>
-      </c>
-      <c r="D8">
-        <v>8.3239999999999998</v>
-      </c>
-      <c r="E8">
-        <v>8.6950000000000003</v>
-      </c>
-      <c r="F8">
-        <v>8.31</v>
-      </c>
-      <c r="G8">
-        <v>9.06</v>
-      </c>
-      <c r="H8">
-        <v>8.9420000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>41</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>42</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>59</v>
-      </c>
-      <c r="C11">
-        <v>78</v>
-      </c>
-      <c r="D11">
-        <v>125</v>
-      </c>
-      <c r="E11">
-        <v>220</v>
-      </c>
-      <c r="F11">
-        <v>397</v>
-      </c>
-      <c r="G11">
-        <v>755</v>
-      </c>
-      <c r="H11">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>86</v>
-      </c>
-      <c r="C12">
-        <v>156</v>
-      </c>
-      <c r="D12">
-        <v>246</v>
-      </c>
-      <c r="E12">
-        <v>429</v>
-      </c>
-      <c r="F12">
-        <v>867</v>
-      </c>
-      <c r="G12">
-        <v>1617</v>
-      </c>
-      <c r="H12">
-        <v>3393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>72</v>
-      </c>
-      <c r="F14">
-        <v>131</v>
-      </c>
-      <c r="G14">
-        <v>250</v>
-      </c>
-      <c r="H14">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>94</v>
-      </c>
-      <c r="E15">
-        <v>144</v>
-      </c>
-      <c r="F15">
-        <v>288</v>
-      </c>
-      <c r="G15">
-        <v>538</v>
-      </c>
-      <c r="H15">
-        <v>1130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48CE571-B250-4D9B-A485-A8953DCBB074}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,25 +5752,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H2">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5524,25 +5778,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C3">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="E3">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="F3">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="G3">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="H3">
-        <v>102</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5550,25 +5804,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5654,33 +5908,33 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.6230000000000002</v>
+        <v>6.8760000000000003</v>
       </c>
       <c r="C8">
-        <v>7.2430000000000003</v>
+        <v>7.9050000000000002</v>
       </c>
       <c r="D8">
-        <v>7.86</v>
+        <v>7.6529999999999996</v>
       </c>
       <c r="E8">
-        <v>7.5350000000000001</v>
+        <v>7.6070000000000002</v>
       </c>
       <c r="F8">
-        <v>7.6109999999999998</v>
+        <v>8.0869999999999997</v>
       </c>
       <c r="G8">
-        <v>8.6029999999999998</v>
+        <v>8.17</v>
       </c>
       <c r="H8">
-        <v>7.8789999999999996</v>
+        <v>8.8469999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -5689,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -5702,63 +5956,63 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>260</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>499</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>1046</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>507</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>1028</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>2053</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>4100</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>8196</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -5767,7 +6021,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -5780,122 +6034,74 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>1047</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>508</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>1029</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>2054</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>4101</v>
       </c>
       <c r="H15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <v>643</v>
-      </c>
-      <c r="H18">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>42563</v>
-      </c>
-      <c r="H19">
-        <v>87333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>645</v>
-      </c>
-      <c r="H21">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>42565</v>
-      </c>
-      <c r="H22">
-        <v>87344</v>
-      </c>
+        <v>8197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5904,7 +6110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31329F41-762F-4971-AEED-C432193FE4EC}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -6023,25 +6229,25 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6049,25 +6255,25 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>4</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>7</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>13</v>
       </c>
     </row>
@@ -6075,25 +6281,25 @@
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6101,25 +6307,25 @@
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>7.5510000000000002</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>9.0920000000000005</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>9.234</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>9.1020000000000003</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>9.1359999999999992</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>8.6509999999999998</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>9.1180000000000003</v>
       </c>
     </row>
@@ -6127,7 +6333,7 @@
       <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -6153,7 +6359,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -6179,7 +6385,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -6205,7 +6411,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -6231,7 +6437,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -6257,7 +6463,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -6280,6 +6486,388 @@
       </c>
       <c r="H15">
         <v>10333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A5CB6C-C1AD-4F1F-A029-26129BDF1AFC}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4">
+        <v>256</v>
+      </c>
+      <c r="D1" s="4">
+        <v>512</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4096</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>110</v>
+      </c>
+      <c r="C2" s="8">
+        <v>104</v>
+      </c>
+      <c r="D2" s="8">
+        <v>107</v>
+      </c>
+      <c r="E2" s="8">
+        <v>124</v>
+      </c>
+      <c r="F2" s="8">
+        <v>129</v>
+      </c>
+      <c r="G2" s="8">
+        <v>139</v>
+      </c>
+      <c r="H2" s="8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>312</v>
+      </c>
+      <c r="C3" s="8">
+        <v>311</v>
+      </c>
+      <c r="D3" s="8">
+        <v>321</v>
+      </c>
+      <c r="E3" s="8">
+        <v>353</v>
+      </c>
+      <c r="F3" s="8">
+        <v>368</v>
+      </c>
+      <c r="G3" s="8">
+        <v>369</v>
+      </c>
+      <c r="H3" s="8">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>240</v>
+      </c>
+      <c r="C4" s="8">
+        <v>250</v>
+      </c>
+      <c r="D4" s="8">
+        <v>267</v>
+      </c>
+      <c r="E4" s="8">
+        <v>284</v>
+      </c>
+      <c r="F4" s="8">
+        <v>288</v>
+      </c>
+      <c r="G4" s="8">
+        <v>303</v>
+      </c>
+      <c r="H4" s="8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6.4710000000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7.069</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7.58</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.4260000000000002</v>
+      </c>
+      <c r="F8" s="6">
+        <v>7.4909999999999997</v>
+      </c>
+      <c r="G8" s="6">
+        <v>7.7750000000000004</v>
+      </c>
+      <c r="H8" s="6">
+        <v>8.1229999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8">
+        <v>66</v>
+      </c>
+      <c r="D11" s="8">
+        <v>126</v>
+      </c>
+      <c r="E11" s="8">
+        <v>260</v>
+      </c>
+      <c r="F11" s="8">
+        <v>500</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1046</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>128</v>
+      </c>
+      <c r="C12" s="8">
+        <v>256</v>
+      </c>
+      <c r="D12" s="8">
+        <v>508</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1028</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2054</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4100</v>
+      </c>
+      <c r="H12" s="8">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8">
+        <v>40</v>
+      </c>
+      <c r="C14" s="8">
+        <v>68</v>
+      </c>
+      <c r="D14" s="8">
+        <v>127</v>
+      </c>
+      <c r="E14" s="8">
+        <v>262</v>
+      </c>
+      <c r="F14" s="8">
+        <v>501</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1048</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8">
+        <v>129</v>
+      </c>
+      <c r="C15" s="8">
+        <v>257</v>
+      </c>
+      <c r="D15" s="8">
+        <v>509</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1029</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2055</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4101</v>
+      </c>
+      <c r="H15" s="8">
+        <v>8197</v>
       </c>
     </row>
   </sheetData>
@@ -6326,14 +6914,14 @@
       <c r="H1" s="4">
         <v>8192</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -6527,7 +7115,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -6553,7 +7141,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -6579,7 +7167,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -6605,7 +7193,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -6631,7 +7219,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -6657,7 +7245,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -6913,7 +7501,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -6939,7 +7527,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -6965,7 +7553,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -6991,7 +7579,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -7017,7 +7605,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -7043,7 +7631,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -7078,8 +7666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8295BFD4-9DC9-4C9A-8372-28715755DB8C}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7296,7 +7884,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -7322,7 +7910,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -7348,7 +7936,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -7374,7 +7962,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -7400,7 +7988,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -7426,7 +8014,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -7462,7 +8050,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7679,7 +8267,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -7705,7 +8293,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -7731,7 +8319,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -7757,7 +8345,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -7783,7 +8371,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -7809,7 +8397,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -7845,7 +8433,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8080,7 +8668,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -8106,7 +8694,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -8132,7 +8720,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -8158,7 +8746,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -8184,7 +8772,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -8210,7 +8798,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -8246,7 +8834,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8481,7 +9069,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -8507,7 +9095,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -8533,7 +9121,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -8559,7 +9147,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -8585,7 +9173,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -8611,7 +9199,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -8643,392 +9231,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D920C15A-8F0F-48C0-B6D4-B9BC44F8D390}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4">
-        <v>128</v>
-      </c>
-      <c r="C1" s="4">
-        <v>256</v>
-      </c>
-      <c r="D1" s="4">
-        <v>512</v>
-      </c>
-      <c r="E1" s="4">
-        <v>1024</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="G1" s="4">
-        <v>4096</v>
-      </c>
-      <c r="H1" s="4">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>83</v>
-      </c>
-      <c r="C2" s="6">
-        <v>87</v>
-      </c>
-      <c r="D2" s="6">
-        <v>91</v>
-      </c>
-      <c r="E2" s="6">
-        <v>93</v>
-      </c>
-      <c r="F2" s="6">
-        <v>101</v>
-      </c>
-      <c r="G2" s="6">
-        <v>109</v>
-      </c>
-      <c r="H2" s="6">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>255</v>
-      </c>
-      <c r="C3" s="6">
-        <v>270</v>
-      </c>
-      <c r="D3" s="6">
-        <v>280</v>
-      </c>
-      <c r="E3" s="6">
-        <v>290</v>
-      </c>
-      <c r="F3" s="6">
-        <v>293</v>
-      </c>
-      <c r="G3" s="6">
-        <v>312</v>
-      </c>
-      <c r="H3" s="6">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>171</v>
-      </c>
-      <c r="C4" s="6">
-        <v>199</v>
-      </c>
-      <c r="D4" s="6">
-        <v>211</v>
-      </c>
-      <c r="E4" s="6">
-        <v>223</v>
-      </c>
-      <c r="F4" s="6">
-        <v>235</v>
-      </c>
-      <c r="G4" s="6">
-        <v>247</v>
-      </c>
-      <c r="H4" s="6">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>6</v>
-      </c>
-      <c r="H6" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7">
-        <v>30</v>
-      </c>
-      <c r="H7" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>6.6929999999999996</v>
-      </c>
-      <c r="C8" s="7">
-        <v>6.5369999999999999</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7.5369999999999999</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7.7320000000000002</v>
-      </c>
-      <c r="F8" s="7">
-        <v>7.3719999999999999</v>
-      </c>
-      <c r="G8" s="7">
-        <v>7.2889999999999997</v>
-      </c>
-      <c r="H8" s="7">
-        <v>7.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>69</v>
-      </c>
-      <c r="C10">
-        <v>134</v>
-      </c>
-      <c r="D10">
-        <v>262</v>
-      </c>
-      <c r="E10">
-        <v>518</v>
-      </c>
-      <c r="F10">
-        <v>1030</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>75</v>
-      </c>
-      <c r="C11">
-        <v>134</v>
-      </c>
-      <c r="D11">
-        <v>262</v>
-      </c>
-      <c r="E11">
-        <v>518</v>
-      </c>
-      <c r="F11">
-        <v>1030</v>
-      </c>
-      <c r="G11">
-        <v>2052</v>
-      </c>
-      <c r="H11">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>76</v>
-      </c>
-      <c r="C12">
-        <v>134</v>
-      </c>
-      <c r="D12">
-        <v>262</v>
-      </c>
-      <c r="E12">
-        <v>518</v>
-      </c>
-      <c r="F12">
-        <v>1030</v>
-      </c>
-      <c r="G12">
-        <v>2054</v>
-      </c>
-      <c r="H12">
-        <v>4102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>67</v>
-      </c>
-      <c r="C13">
-        <v>132</v>
-      </c>
-      <c r="D13">
-        <v>260</v>
-      </c>
-      <c r="E13">
-        <v>516</v>
-      </c>
-      <c r="F13">
-        <v>1028</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>67</v>
-      </c>
-      <c r="C14">
-        <v>132</v>
-      </c>
-      <c r="D14">
-        <v>260</v>
-      </c>
-      <c r="E14">
-        <v>516</v>
-      </c>
-      <c r="F14">
-        <v>1028</v>
-      </c>
-      <c r="G14">
-        <v>2050</v>
-      </c>
-      <c r="H14">
-        <v>4098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>68</v>
-      </c>
-      <c r="C15">
-        <v>132</v>
-      </c>
-      <c r="D15">
-        <v>260</v>
-      </c>
-      <c r="E15">
-        <v>516</v>
-      </c>
-      <c r="F15">
-        <v>1028</v>
-      </c>
-      <c r="G15">
-        <v>2052</v>
-      </c>
-      <c r="H15">
-        <v>4100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620BC32-9C72-4322-B8A0-FB5D6F262CC8}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9245,7 +9452,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -9271,7 +9478,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -9297,7 +9504,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -9323,7 +9530,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -9349,7 +9556,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -9375,7 +9582,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -9398,6 +9605,389 @@
       </c>
       <c r="H15">
         <v>2054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555EC2DB-4136-4E77-99D8-5D03F27EBEFD}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4">
+        <v>256</v>
+      </c>
+      <c r="D1" s="4">
+        <v>512</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4096</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>118</v>
+      </c>
+      <c r="D3">
+        <v>125</v>
+      </c>
+      <c r="E3">
+        <v>131</v>
+      </c>
+      <c r="F3">
+        <v>126</v>
+      </c>
+      <c r="G3">
+        <v>137</v>
+      </c>
+      <c r="H3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4">
+        <v>126</v>
+      </c>
+      <c r="E4">
+        <v>133</v>
+      </c>
+      <c r="F4">
+        <v>138</v>
+      </c>
+      <c r="G4">
+        <v>149</v>
+      </c>
+      <c r="H4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="C8">
+        <v>5.8789999999999996</v>
+      </c>
+      <c r="D8">
+        <v>6.3170000000000002</v>
+      </c>
+      <c r="E8">
+        <v>6.1639999999999997</v>
+      </c>
+      <c r="F8">
+        <v>6.4889999999999999</v>
+      </c>
+      <c r="G8">
+        <v>6.5270000000000001</v>
+      </c>
+      <c r="H8">
+        <v>7.4109999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>121</v>
+      </c>
+      <c r="F10">
+        <v>244</v>
+      </c>
+      <c r="G10">
+        <v>492</v>
+      </c>
+      <c r="H10">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>184</v>
+      </c>
+      <c r="E11">
+        <v>364</v>
+      </c>
+      <c r="F11">
+        <v>730</v>
+      </c>
+      <c r="G11">
+        <v>1437</v>
+      </c>
+      <c r="H11">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>262</v>
+      </c>
+      <c r="D12">
+        <v>518</v>
+      </c>
+      <c r="E12">
+        <v>1030</v>
+      </c>
+      <c r="F12">
+        <v>2054</v>
+      </c>
+      <c r="G12">
+        <v>4102</v>
+      </c>
+      <c r="H12">
+        <v>8198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>122</v>
+      </c>
+      <c r="F13">
+        <v>245</v>
+      </c>
+      <c r="G13">
+        <v>493</v>
+      </c>
+      <c r="H13">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>186</v>
+      </c>
+      <c r="E14">
+        <v>366</v>
+      </c>
+      <c r="F14">
+        <v>731</v>
+      </c>
+      <c r="G14">
+        <v>1439</v>
+      </c>
+      <c r="H14">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>135</v>
+      </c>
+      <c r="C15">
+        <v>263</v>
+      </c>
+      <c r="D15">
+        <v>519</v>
+      </c>
+      <c r="E15">
+        <v>1031</v>
+      </c>
+      <c r="F15">
+        <v>2055</v>
+      </c>
+      <c r="G15">
+        <v>4103</v>
+      </c>
+      <c r="H15">
+        <v>8199</v>
       </c>
     </row>
   </sheetData>

--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive\Documentos\CAM_Windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7f3f8e23c5cac0d/Documentos/CAM_Windows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CF8AFC-F4A9-47FB-B302-D2AE01524719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{52A2DA85-AF3B-4429-9AAE-FBA2904CD54D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" firstSheet="7" activeTab="11" xr2:uid="{D5AAE986-D25D-4ED4-8DFE-8E0C7A09621E}"/>
   </bookViews>
